--- a/AfDD_2025_Annex_Table_Tab09.xlsx
+++ b/AfDD_2025_Annex_Table_Tab09.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA7C829D-35B0-47D9-8AAF-C413BE0204C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{65B3BB12-6D36-42F7-8519-D51848289A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{C2BDB49C-9F24-41C0-9D89-82EED6CC6EDA}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{9B184AE7-1CF8-44A6-91FB-0B6C4F274097}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab09" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="170">
   <si>
     <t>Table 9: Growth decomposition by expenditure</t>
   </si>
@@ -78,9 +78,6 @@
     <t>Botswana</t>
   </si>
   <si>
-    <t>Update will be coming soon</t>
-  </si>
-  <si>
     <t>SWZ</t>
   </si>
   <si>
@@ -127,6 +124,9 @@
   </si>
   <si>
     <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>..</t>
   </si>
   <si>
     <t>Southern Africa</t>
@@ -556,7 +556,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -625,13 +625,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <color theme="1"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="35"/>
       <color theme="1"/>
       <name val="Calibri Light"/>
       <family val="2"/>
@@ -931,7 +924,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -976,8 +969,11 @@
     <xf numFmtId="39" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -991,12 +987,6 @@
     <xf numFmtId="39" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1009,19 +999,19 @@
     <xf numFmtId="39" fontId="9" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="12" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="11" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="12" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="11" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1075,25 +1065,25 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="39" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1108,13 +1098,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="15" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="15" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1141,28 +1131,28 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="15" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="15" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="15" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
@@ -1446,11 +1436,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007F6E97-F3C8-4297-9C31-3D3F6C56D79F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEC5A96E-59AD-4158-87DB-7514395309FB}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O113"/>
+  <dimension ref="A1:H113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -1458,11 +1448,11 @@
   <cols>
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="14.140625" style="81" customWidth="1"/>
+    <col min="3" max="8" width="14.140625" style="80" customWidth="1"/>
     <col min="9" max="15" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1473,7 +1463,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:15" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1499,699 +1489,1245 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="13"/>
-    </row>
-    <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="11">
+        <v>51.281185000000001</v>
+      </c>
+      <c r="D3" s="12">
+        <v>33.585650000000001</v>
+      </c>
+      <c r="E3" s="12">
+        <v>0</v>
+      </c>
+      <c r="F3" s="12">
+        <v>15.133165</v>
+      </c>
+      <c r="G3" s="12">
+        <v>20.053224</v>
+      </c>
+      <c r="H3" s="13">
+        <v>35.186388999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="16" t="s">
+      <c r="C4" s="15">
+        <v>72.475521999999998</v>
+      </c>
+      <c r="D4" s="16">
+        <v>25.295860999999999</v>
+      </c>
+      <c r="E4" s="16">
+        <v>0.694241</v>
+      </c>
+      <c r="F4" s="16">
+        <v>1.534375</v>
+      </c>
+      <c r="G4" s="16">
+        <v>43.746223000000001</v>
+      </c>
+      <c r="H4" s="17">
+        <v>45.280597999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-    </row>
-    <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="B5" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="C5" s="15">
+        <v>102.61821500000001</v>
+      </c>
+      <c r="D5" s="19">
+        <v>15.251552999999999</v>
+      </c>
+      <c r="E5" s="19">
+        <v>0</v>
+      </c>
+      <c r="F5" s="19">
+        <v>-17.869768000000001</v>
+      </c>
+      <c r="G5" s="19">
+        <v>71.536499000000006</v>
+      </c>
+      <c r="H5" s="20">
+        <v>53.666730999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-    </row>
-    <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="B6" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="C6" s="15">
+        <v>119.082104</v>
+      </c>
+      <c r="D6" s="19">
+        <v>26.870353000000001</v>
+      </c>
+      <c r="E6" s="19">
+        <v>4.8379339999999997</v>
+      </c>
+      <c r="F6" s="19">
+        <v>-50.790391999999997</v>
+      </c>
+      <c r="G6" s="19">
+        <v>97.416003000000003</v>
+      </c>
+      <c r="H6" s="20">
+        <v>46.625610999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-    </row>
-    <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="B7" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="C7" s="15">
+        <v>105.270004</v>
+      </c>
+      <c r="D7" s="19">
+        <v>13.157645</v>
+      </c>
+      <c r="E7" s="19">
+        <v>0.218747</v>
+      </c>
+      <c r="F7" s="19">
+        <v>-18.646394999999998</v>
+      </c>
+      <c r="G7" s="19">
+        <v>30.490154</v>
+      </c>
+      <c r="H7" s="20">
+        <v>11.843757999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="B8" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="C8" s="15">
+        <v>92.421347999999995</v>
+      </c>
+      <c r="D8" s="19">
+        <v>43.204318999999998</v>
+      </c>
+      <c r="E8" s="19">
+        <v>0</v>
+      </c>
+      <c r="F8" s="19">
+        <v>-35.625667</v>
+      </c>
+      <c r="G8" s="19">
+        <v>85.452618000000001</v>
+      </c>
+      <c r="H8" s="20">
+        <v>49.826951000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="19"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="B9" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="C9" s="21">
+        <v>96.189598000000004</v>
+      </c>
+      <c r="D9" s="19">
+        <v>16.688725999999999</v>
+      </c>
+      <c r="E9" s="19">
+        <v>3.391464</v>
+      </c>
+      <c r="F9" s="19">
+        <v>-16.269787999999998</v>
+      </c>
+      <c r="G9" s="19">
+        <v>59.144072999999999</v>
+      </c>
+      <c r="H9" s="20">
+        <v>42.874285</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="19"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="B10" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="C10" s="21">
+        <v>82.592574999999997</v>
+      </c>
+      <c r="D10" s="19">
+        <v>14.091899</v>
+      </c>
+      <c r="E10" s="19">
+        <v>1.351971</v>
+      </c>
+      <c r="F10" s="19">
+        <v>1.9635549999999999</v>
+      </c>
+      <c r="G10" s="19">
+        <v>31.470223000000001</v>
+      </c>
+      <c r="H10" s="20">
+        <v>33.433777999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="19"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="B11" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="C11" s="15">
+        <v>61.928736000000001</v>
+      </c>
+      <c r="D11" s="16">
+        <v>25.104330000000001</v>
+      </c>
+      <c r="E11" s="16">
+        <v>1.8761829999999999</v>
+      </c>
+      <c r="F11" s="16">
+        <v>11.09075</v>
+      </c>
+      <c r="G11" s="16">
+        <v>29.103273000000002</v>
+      </c>
+      <c r="H11" s="17">
+        <v>40.194023999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="22"/>
-    </row>
-    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+      <c r="B12" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="C12" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="26"/>
-    </row>
-    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="27"/>
-      <c r="B13" s="28" t="s">
+      <c r="D12" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="26"/>
+      <c r="B13" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="31"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C13" s="28">
+        <v>75.690844999999996</v>
+      </c>
+      <c r="D13" s="29">
+        <v>20.44802</v>
+      </c>
+      <c r="E13" s="29">
+        <v>1.0263279999999999</v>
+      </c>
+      <c r="F13" s="29">
+        <v>2.8348070000000001</v>
+      </c>
+      <c r="G13" s="29">
+        <v>32.168647999999997</v>
+      </c>
+      <c r="H13" s="30">
+        <v>35.003455000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="19"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C14" s="21">
+        <v>106.607387</v>
+      </c>
+      <c r="D14" s="19">
+        <v>19.605625</v>
+      </c>
+      <c r="E14" s="19">
+        <v>1.331512</v>
+      </c>
+      <c r="F14" s="19">
+        <v>-27.544523999999999</v>
+      </c>
+      <c r="G14" s="19">
+        <v>35.978101000000002</v>
+      </c>
+      <c r="H14" s="20">
+        <v>8.4335769999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="19"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C15" s="21">
+        <v>83.536090000000002</v>
+      </c>
+      <c r="D15" s="19">
+        <v>19.107021</v>
+      </c>
+      <c r="E15" s="19">
+        <v>0</v>
+      </c>
+      <c r="F15" s="19">
+        <v>-2.6431110000000002</v>
+      </c>
+      <c r="G15" s="19">
+        <v>21.964763000000001</v>
+      </c>
+      <c r="H15" s="20">
+        <v>19.321650999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="19"/>
+      <c r="C16" s="21">
+        <v>105.34641499999999</v>
+      </c>
+      <c r="D16" s="19">
+        <v>14.850726</v>
+      </c>
+      <c r="E16" s="19">
+        <v>0</v>
+      </c>
+      <c r="F16" s="19">
+        <v>-20.197140999999998</v>
+      </c>
+      <c r="G16" s="19">
+        <v>33.919688999999998</v>
+      </c>
+      <c r="H16" s="20">
+        <v>13.722548</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="35"/>
+      <c r="C17" s="32">
+        <v>66.546167999999994</v>
+      </c>
+      <c r="D17" s="33">
+        <v>14.527801999999999</v>
+      </c>
+      <c r="E17" s="33">
+        <v>14.930736</v>
+      </c>
+      <c r="F17" s="33">
+        <v>3.9952939999999999</v>
+      </c>
+      <c r="G17" s="33">
+        <v>31.079367999999999</v>
+      </c>
+      <c r="H17" s="34">
+        <v>35.074663000000001</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="35"/>
+      <c r="C18" s="32">
+        <v>45.100403</v>
+      </c>
+      <c r="D18" s="33">
+        <v>26.278915000000001</v>
+      </c>
+      <c r="E18" s="33">
+        <v>0.115027</v>
+      </c>
+      <c r="F18" s="33">
+        <v>28.505655999999998</v>
+      </c>
+      <c r="G18" s="33">
+        <v>41.211452000000001</v>
+      </c>
+      <c r="H18" s="34">
+        <v>69.717107999999996</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="22"/>
+      <c r="C19" s="15">
+        <v>92.823955999999995</v>
+      </c>
+      <c r="D19" s="16">
+        <v>11.983893</v>
+      </c>
+      <c r="E19" s="16">
+        <v>0</v>
+      </c>
+      <c r="F19" s="16">
+        <v>-4.807849</v>
+      </c>
+      <c r="G19" s="16">
+        <v>50.022711999999999</v>
+      </c>
+      <c r="H19" s="17">
+        <v>45.214863000000001</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="35"/>
+      <c r="C20" s="32">
+        <v>41.116520000000001</v>
+      </c>
+      <c r="D20" s="33">
+        <v>29.572710000000001</v>
+      </c>
+      <c r="E20" s="33">
+        <v>-0.67619799999999997</v>
+      </c>
+      <c r="F20" s="33">
+        <v>29.986968000000001</v>
+      </c>
+      <c r="G20" s="33">
+        <v>18.474419000000001</v>
+      </c>
+      <c r="H20" s="34">
+        <v>48.461387000000002</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="33"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="35"/>
+      <c r="C21" s="32">
+        <v>51.583891999999999</v>
+      </c>
+      <c r="D21" s="33">
+        <v>29.942473</v>
+      </c>
+      <c r="E21" s="33">
+        <v>0</v>
+      </c>
+      <c r="F21" s="33">
+        <v>18.473635000000002</v>
+      </c>
+      <c r="G21" s="33">
+        <v>28.130358999999999</v>
+      </c>
+      <c r="H21" s="34">
+        <v>46.603994</v>
+      </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="37"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="39"/>
+      <c r="C22" s="36">
+        <v>91.757450000000006</v>
+      </c>
+      <c r="D22" s="37">
+        <v>37.840527000000002</v>
+      </c>
+      <c r="E22" s="37">
+        <v>0</v>
+      </c>
+      <c r="F22" s="37">
+        <v>-29.597977</v>
+      </c>
+      <c r="G22" s="37">
+        <v>47.363567000000003</v>
+      </c>
+      <c r="H22" s="38">
+        <v>17.765588999999999</v>
+      </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="27"/>
-      <c r="B23" s="28" t="s">
+      <c r="A23" s="26"/>
+      <c r="B23" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="31"/>
+      <c r="C23" s="28">
+        <v>76.639263999999997</v>
+      </c>
+      <c r="D23" s="29">
+        <v>18.746905999999999</v>
+      </c>
+      <c r="E23" s="29">
+        <v>1.497193</v>
+      </c>
+      <c r="F23" s="29">
+        <v>3.1166369999999999</v>
+      </c>
+      <c r="G23" s="29">
+        <v>34.175471000000002</v>
+      </c>
+      <c r="H23" s="30">
+        <v>37.292109000000004</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="40" t="s">
+      <c r="B24" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="41"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="43"/>
+      <c r="C24" s="40">
+        <v>112.51096200000001</v>
+      </c>
+      <c r="D24" s="41">
+        <v>16.985195000000001</v>
+      </c>
+      <c r="E24" s="41">
+        <v>-4.3886789999999998</v>
+      </c>
+      <c r="F24" s="41">
+        <v>-25.107476999999999</v>
+      </c>
+      <c r="G24" s="41">
+        <v>39.543166999999997</v>
+      </c>
+      <c r="H24" s="42">
+        <v>14.435689999999999</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="19"/>
+      <c r="C25" s="21">
+        <v>94.379679999999993</v>
+      </c>
+      <c r="D25" s="19">
+        <v>28.976313999999999</v>
+      </c>
+      <c r="E25" s="19">
+        <v>-39.572056000000003</v>
+      </c>
+      <c r="F25" s="19">
+        <v>16.216062000000001</v>
+      </c>
+      <c r="G25" s="19">
+        <v>143.034674</v>
+      </c>
+      <c r="H25" s="20">
+        <v>159.25073599999999</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="19"/>
+      <c r="C26" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="H26" s="20" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="19"/>
+      <c r="C27" s="21">
+        <v>84.765193999999994</v>
+      </c>
+      <c r="D27" s="19">
+        <v>25.342179000000002</v>
+      </c>
+      <c r="E27" s="19">
+        <v>0</v>
+      </c>
+      <c r="F27" s="19">
+        <v>-10.107373000000001</v>
+      </c>
+      <c r="G27" s="19">
+        <v>18.351505</v>
+      </c>
+      <c r="H27" s="20">
+        <v>8.2441320000000005</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="19"/>
+      <c r="C28" s="21">
+        <v>90.166904000000002</v>
+      </c>
+      <c r="D28" s="19">
+        <v>18.769856999999998</v>
+      </c>
+      <c r="E28" s="19">
+        <v>0.45278200000000002</v>
+      </c>
+      <c r="F28" s="19">
+        <v>-9.3895429999999998</v>
+      </c>
+      <c r="G28" s="19">
+        <v>21.689377</v>
+      </c>
+      <c r="H28" s="20">
+        <v>12.299834000000001</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="19"/>
+      <c r="C29" s="21">
+        <v>87.298567000000006</v>
+      </c>
+      <c r="D29" s="19">
+        <v>21.83905</v>
+      </c>
+      <c r="E29" s="19">
+        <v>0.32292700000000002</v>
+      </c>
+      <c r="F29" s="19">
+        <v>-9.4605449999999998</v>
+      </c>
+      <c r="G29" s="19">
+        <v>40.003841000000001</v>
+      </c>
+      <c r="H29" s="20">
+        <v>30.543296000000002</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="19"/>
+      <c r="C30" s="21">
+        <v>92.668087</v>
+      </c>
+      <c r="D30" s="19">
+        <v>21.170907</v>
+      </c>
+      <c r="E30" s="19">
+        <v>0.72386399999999995</v>
+      </c>
+      <c r="F30" s="19">
+        <v>-14.562856999999999</v>
+      </c>
+      <c r="G30" s="19">
+        <v>67.531975000000003</v>
+      </c>
+      <c r="H30" s="20">
+        <v>52.969118000000002</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="19"/>
+      <c r="C31" s="21">
+        <v>90.451199000000003</v>
+      </c>
+      <c r="D31" s="19">
+        <v>24.564473</v>
+      </c>
+      <c r="E31" s="19">
+        <v>1.1735549999999999</v>
+      </c>
+      <c r="F31" s="19">
+        <v>-16.189226999999999</v>
+      </c>
+      <c r="G31" s="19">
+        <v>38.668998999999999</v>
+      </c>
+      <c r="H31" s="20">
+        <v>22.479773000000002</v>
+      </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="19"/>
+      <c r="C32" s="21">
+        <v>79.442725999999993</v>
+      </c>
+      <c r="D32" s="19">
+        <v>23.072655000000001</v>
+      </c>
+      <c r="E32" s="19">
+        <v>0</v>
+      </c>
+      <c r="F32" s="19">
+        <v>-2.5153810000000001</v>
+      </c>
+      <c r="G32" s="19">
+        <v>113.84954399999999</v>
+      </c>
+      <c r="H32" s="20">
+        <v>111.334163</v>
+      </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="20"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="19"/>
+      <c r="C33" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="H33" s="20" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B34" s="32" t="s">
+      <c r="B34" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="33"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="35"/>
+      <c r="C34" s="32">
+        <v>47.416401999999998</v>
+      </c>
+      <c r="D34" s="33">
+        <v>43.551490999999999</v>
+      </c>
+      <c r="E34" s="33">
+        <v>0</v>
+      </c>
+      <c r="F34" s="33">
+        <v>9.0321069999999999</v>
+      </c>
+      <c r="G34" s="33">
+        <v>49.090231000000003</v>
+      </c>
+      <c r="H34" s="34">
+        <v>58.122337999999999</v>
+      </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C35" s="20"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="19"/>
+      <c r="C35" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G35" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="H35" s="20" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="C36" s="20"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="19"/>
+      <c r="C36" s="21">
+        <v>67.31532</v>
+      </c>
+      <c r="D36" s="19">
+        <v>39.645023999999999</v>
+      </c>
+      <c r="E36" s="19">
+        <v>-0.68642400000000003</v>
+      </c>
+      <c r="F36" s="19">
+        <v>-6.2739200000000004</v>
+      </c>
+      <c r="G36" s="19">
+        <v>22.312200000000001</v>
+      </c>
+      <c r="H36" s="20">
+        <v>16.03828</v>
+      </c>
     </row>
     <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B37" s="23" t="s">
+      <c r="B37" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="C37" s="24"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="26"/>
+      <c r="C37" s="23">
+        <v>88.158174000000002</v>
+      </c>
+      <c r="D37" s="24">
+        <v>23.483011000000001</v>
+      </c>
+      <c r="E37" s="24">
+        <v>0.75154399999999999</v>
+      </c>
+      <c r="F37" s="24">
+        <v>-12.392728999999999</v>
+      </c>
+      <c r="G37" s="24">
+        <v>23.681359</v>
+      </c>
+      <c r="H37" s="25">
+        <v>11.288631000000001</v>
+      </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="27"/>
-      <c r="B38" s="28" t="s">
+      <c r="A38" s="26"/>
+      <c r="B38" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="C38" s="29"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="31"/>
+      <c r="C38" s="28">
+        <v>83.474479000000002</v>
+      </c>
+      <c r="D38" s="29">
+        <v>26.020275000000002</v>
+      </c>
+      <c r="E38" s="29">
+        <v>-0.102765</v>
+      </c>
+      <c r="F38" s="29">
+        <v>-9.3919890000000006</v>
+      </c>
+      <c r="G38" s="29">
+        <v>25.111288999999999</v>
+      </c>
+      <c r="H38" s="30">
+        <v>15.7193</v>
+      </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B39" s="44" t="s">
+      <c r="B39" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="45"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="46"/>
-      <c r="H39" s="47"/>
+      <c r="C39" s="44">
+        <v>54.327810999999997</v>
+      </c>
+      <c r="D39" s="45">
+        <v>30.377191</v>
+      </c>
+      <c r="E39" s="45">
+        <v>5.3737079999999997</v>
+      </c>
+      <c r="F39" s="45">
+        <v>9.9212900000000008</v>
+      </c>
+      <c r="G39" s="45">
+        <v>20.684695999999999</v>
+      </c>
+      <c r="H39" s="46">
+        <v>30.605986000000001</v>
+      </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="19"/>
+      <c r="C40" s="21">
+        <v>86.953140000000005</v>
+      </c>
+      <c r="D40" s="19">
+        <v>15.206886000000001</v>
+      </c>
+      <c r="E40" s="19">
+        <v>4.6490280000000004</v>
+      </c>
+      <c r="F40" s="19">
+        <v>-6.8090529999999996</v>
+      </c>
+      <c r="G40" s="19">
+        <v>21.896079</v>
+      </c>
+      <c r="H40" s="20">
+        <v>15.087026</v>
+      </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="B41" s="48" t="s">
+      <c r="B41" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="C41" s="33"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="35"/>
+      <c r="C41" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D41" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="E41" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F41" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="G41" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="H41" s="34" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B42" s="48" t="s">
+      <c r="B42" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="C42" s="33"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="35"/>
+      <c r="C42" s="32">
+        <v>73.482180999999997</v>
+      </c>
+      <c r="D42" s="33">
+        <v>29.782762000000002</v>
+      </c>
+      <c r="E42" s="33">
+        <v>19.285429000000001</v>
+      </c>
+      <c r="F42" s="33">
+        <v>-22.550371999999999</v>
+      </c>
+      <c r="G42" s="33">
+        <v>62.288293000000003</v>
+      </c>
+      <c r="H42" s="34">
+        <v>39.737921</v>
+      </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="C43" s="20"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="19"/>
+      <c r="C43" s="21">
+        <v>81.350121999999999</v>
+      </c>
+      <c r="D43" s="19">
+        <v>26.722304000000001</v>
+      </c>
+      <c r="E43" s="19">
+        <v>3.4563519999999999</v>
+      </c>
+      <c r="F43" s="19">
+        <v>-11.528778000000001</v>
+      </c>
+      <c r="G43" s="19">
+        <v>56.418444999999998</v>
+      </c>
+      <c r="H43" s="20">
+        <v>44.889667000000003</v>
+      </c>
     </row>
     <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="B44" s="36" t="s">
+      <c r="B44" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="C44" s="37"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="38"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="39"/>
+      <c r="C44" s="36">
+        <v>99.206175999999999</v>
+      </c>
+      <c r="D44" s="37">
+        <v>15.240710999999999</v>
+      </c>
+      <c r="E44" s="37">
+        <v>-1</v>
+      </c>
+      <c r="F44" s="37">
+        <v>-13.446887</v>
+      </c>
+      <c r="G44" s="37">
+        <v>67.642233000000004</v>
+      </c>
+      <c r="H44" s="38">
+        <v>54.195346000000001</v>
+      </c>
     </row>
     <row r="45" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="27"/>
-      <c r="B45" s="28" t="s">
+      <c r="A45" s="26"/>
+      <c r="B45" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="C45" s="29"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="30"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="31"/>
+      <c r="C45" s="28">
+        <v>79.585686999999993</v>
+      </c>
+      <c r="D45" s="29">
+        <v>19.970244999999998</v>
+      </c>
+      <c r="E45" s="29">
+        <v>4.5376260000000004</v>
+      </c>
+      <c r="F45" s="29">
+        <v>-4.0935589999999999</v>
+      </c>
+      <c r="G45" s="29">
+        <v>28.07987</v>
+      </c>
+      <c r="H45" s="30">
+        <v>23.986311000000001</v>
+      </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="B46" s="40" t="s">
+      <c r="B46" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="C46" s="41"/>
-      <c r="D46" s="42"/>
-      <c r="E46" s="42"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="43"/>
+      <c r="C46" s="40">
+        <v>69.353391000000002</v>
+      </c>
+      <c r="D46" s="41">
+        <v>36.132967999999998</v>
+      </c>
+      <c r="E46" s="41">
+        <v>0.39282600000000001</v>
+      </c>
+      <c r="F46" s="41">
+        <v>-5.8791849999999997</v>
+      </c>
+      <c r="G46" s="41">
+        <v>30.390588999999999</v>
+      </c>
+      <c r="H46" s="42">
+        <v>24.511403999999999</v>
+      </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B47" s="17" t="s">
+      <c r="B47" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="C47" s="20"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="19"/>
+      <c r="C47" s="21">
+        <v>89.729071000000005</v>
+      </c>
+      <c r="D47" s="19">
+        <v>14.198681000000001</v>
+      </c>
+      <c r="E47" s="19">
+        <v>0.91761400000000004</v>
+      </c>
+      <c r="F47" s="19">
+        <v>-4.8453670000000004</v>
+      </c>
+      <c r="G47" s="19">
+        <v>34.58887</v>
+      </c>
+      <c r="H47" s="20">
+        <v>29.743504000000001</v>
+      </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B48" s="48" t="s">
+      <c r="B48" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="C48" s="33"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="34"/>
-      <c r="G48" s="34"/>
-      <c r="H48" s="35"/>
+      <c r="C48" s="32">
+        <v>94.111326000000005</v>
+      </c>
+      <c r="D48" s="33">
+        <v>24.784486999999999</v>
+      </c>
+      <c r="E48" s="33">
+        <v>0</v>
+      </c>
+      <c r="F48" s="33">
+        <v>-18.895814000000001</v>
+      </c>
+      <c r="G48" s="33">
+        <v>56.141522999999999</v>
+      </c>
+      <c r="H48" s="34">
+        <v>37.245710000000003</v>
+      </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="B49" s="17" t="s">
+      <c r="B49" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="C49" s="20"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="19"/>
+      <c r="C49" s="21">
+        <v>76.846359000000007</v>
+      </c>
+      <c r="D49" s="19">
+        <v>22.289522000000002</v>
+      </c>
+      <c r="E49" s="19">
+        <v>5.1957899999999997</v>
+      </c>
+      <c r="F49" s="19">
+        <v>-4.3316699999999999</v>
+      </c>
+      <c r="G49" s="19">
+        <v>28.599031</v>
+      </c>
+      <c r="H49" s="20">
+        <v>24.26736</v>
+      </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B50" s="17" t="s">
+      <c r="B50" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="C50" s="20"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="19"/>
+      <c r="C50" s="21">
+        <v>103.662757</v>
+      </c>
+      <c r="D50" s="19">
+        <v>22.662956999999999</v>
+      </c>
+      <c r="E50" s="19">
+        <v>0</v>
+      </c>
+      <c r="F50" s="19">
+        <v>-26.325714000000001</v>
+      </c>
+      <c r="G50" s="19">
+        <v>38.847572999999997</v>
+      </c>
+      <c r="H50" s="20">
+        <v>12.521858</v>
+      </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
@@ -2200,761 +2736,1334 @@
       <c r="B51" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="C51" s="15"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="22"/>
+      <c r="C51" s="15">
+        <v>85.480236000000005</v>
+      </c>
+      <c r="D51" s="16">
+        <v>15.394527999999999</v>
+      </c>
+      <c r="E51" s="16">
+        <v>0.20427799999999999</v>
+      </c>
+      <c r="F51" s="16">
+        <v>-1.0790420000000001</v>
+      </c>
+      <c r="G51" s="16">
+        <v>36.937044</v>
+      </c>
+      <c r="H51" s="17">
+        <v>35.858001000000002</v>
+      </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="B52" s="17" t="s">
+      <c r="B52" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="C52" s="20"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="18"/>
-      <c r="H52" s="19"/>
+      <c r="C52" s="21">
+        <v>75.195922999999993</v>
+      </c>
+      <c r="D52" s="19">
+        <v>17.364621</v>
+      </c>
+      <c r="E52" s="19">
+        <v>0</v>
+      </c>
+      <c r="F52" s="19">
+        <v>7.4394559999999998</v>
+      </c>
+      <c r="G52" s="19">
+        <v>37.984597000000001</v>
+      </c>
+      <c r="H52" s="20">
+        <v>45.424053000000001</v>
+      </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B53" s="17" t="s">
+      <c r="B53" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="C53" s="20"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="18"/>
-      <c r="H53" s="19"/>
+      <c r="C53" s="21">
+        <v>99.587791999999993</v>
+      </c>
+      <c r="D53" s="19">
+        <v>16.864919</v>
+      </c>
+      <c r="E53" s="19">
+        <v>1.2055849999999999</v>
+      </c>
+      <c r="F53" s="19">
+        <v>-17.658296</v>
+      </c>
+      <c r="G53" s="19">
+        <v>34.310271999999998</v>
+      </c>
+      <c r="H53" s="20">
+        <v>16.651976000000001</v>
+      </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="B54" s="17" t="s">
+      <c r="B54" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="C54" s="20"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="18"/>
-      <c r="H54" s="19"/>
+      <c r="C54" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D54" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E54" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F54" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G54" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="H54" s="20" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="B55" s="17" t="s">
+      <c r="B55" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="C55" s="20"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="18"/>
-      <c r="G55" s="18"/>
-      <c r="H55" s="19"/>
+      <c r="C55" s="21">
+        <v>91.877657999999997</v>
+      </c>
+      <c r="D55" s="19">
+        <v>19.608478000000002</v>
+      </c>
+      <c r="E55" s="19">
+        <v>-0.375527</v>
+      </c>
+      <c r="F55" s="19">
+        <v>-11.110609999999999</v>
+      </c>
+      <c r="G55" s="19">
+        <v>42.249626999999997</v>
+      </c>
+      <c r="H55" s="20">
+        <v>31.139016999999999</v>
+      </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="B56" s="17" t="s">
+      <c r="B56" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="C56" s="20"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="18"/>
-      <c r="H56" s="19"/>
+      <c r="C56" s="21">
+        <v>90.950637999999998</v>
+      </c>
+      <c r="D56" s="19">
+        <v>27.167867000000001</v>
+      </c>
+      <c r="E56" s="19">
+        <v>0.15590499999999999</v>
+      </c>
+      <c r="F56" s="19">
+        <v>-18.274411000000001</v>
+      </c>
+      <c r="G56" s="19">
+        <v>29.971958000000001</v>
+      </c>
+      <c r="H56" s="20">
+        <v>11.697547</v>
+      </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="B57" s="17" t="s">
+      <c r="B57" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="C57" s="20"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="18"/>
-      <c r="H57" s="19"/>
+      <c r="C57" s="21">
+        <v>68.419169999999994</v>
+      </c>
+      <c r="D57" s="19">
+        <v>32.532421999999997</v>
+      </c>
+      <c r="E57" s="19">
+        <v>0.73420399999999997</v>
+      </c>
+      <c r="F57" s="19">
+        <v>-1.6857960000000001</v>
+      </c>
+      <c r="G57" s="19">
+        <v>16.321455</v>
+      </c>
+      <c r="H57" s="20">
+        <v>14.635659</v>
+      </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B58" s="17" t="s">
+      <c r="B58" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="C58" s="20"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="19"/>
+      <c r="C58" s="21">
+        <v>79.154375000000002</v>
+      </c>
+      <c r="D58" s="19">
+        <v>36.636277999999997</v>
+      </c>
+      <c r="E58" s="19">
+        <v>10.498632000000001</v>
+      </c>
+      <c r="F58" s="19">
+        <v>-26.289285</v>
+      </c>
+      <c r="G58" s="19">
+        <v>53.078119000000001</v>
+      </c>
+      <c r="H58" s="20">
+        <v>26.788834000000001</v>
+      </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="B59" s="17" t="s">
+      <c r="B59" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="C59" s="20"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
-      <c r="H59" s="19"/>
+      <c r="C59" s="21">
+        <v>97.367137</v>
+      </c>
+      <c r="D59" s="19">
+        <v>18.674932999999999</v>
+      </c>
+      <c r="E59" s="19">
+        <v>-3.793911</v>
+      </c>
+      <c r="F59" s="19">
+        <v>-12.248158999999999</v>
+      </c>
+      <c r="G59" s="19">
+        <v>29.137511</v>
+      </c>
+      <c r="H59" s="20">
+        <v>16.889351999999999</v>
+      </c>
     </row>
     <row r="60" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B60" s="23" t="s">
+      <c r="B60" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="C60" s="24"/>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="25"/>
-      <c r="H60" s="26"/>
+      <c r="C60" s="23">
+        <v>86.073643000000004</v>
+      </c>
+      <c r="D60" s="24">
+        <v>23.547160000000002</v>
+      </c>
+      <c r="E60" s="24">
+        <v>0</v>
+      </c>
+      <c r="F60" s="24">
+        <v>-9.6208039999999997</v>
+      </c>
+      <c r="G60" s="24">
+        <v>31.035368999999999</v>
+      </c>
+      <c r="H60" s="25">
+        <v>21.414566000000001</v>
+      </c>
     </row>
     <row r="61" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="27"/>
-      <c r="B61" s="28" t="s">
+      <c r="A61" s="26"/>
+      <c r="B61" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="C61" s="29"/>
-      <c r="D61" s="30"/>
-      <c r="E61" s="30"/>
-      <c r="F61" s="30"/>
-      <c r="G61" s="30"/>
-      <c r="H61" s="31"/>
+      <c r="C61" s="28">
+        <v>74.143876000000006</v>
+      </c>
+      <c r="D61" s="29">
+        <v>28.240492</v>
+      </c>
+      <c r="E61" s="29">
+        <v>1.318695</v>
+      </c>
+      <c r="F61" s="29">
+        <v>-3.7030639999999999</v>
+      </c>
+      <c r="G61" s="29">
+        <v>23.968108000000001</v>
+      </c>
+      <c r="H61" s="30">
+        <v>20.265044</v>
+      </c>
     </row>
     <row r="62" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="49"/>
-      <c r="B62" s="50" t="s">
+      <c r="A62" s="48"/>
+      <c r="B62" s="49" t="s">
         <v>123</v>
       </c>
-      <c r="C62" s="51"/>
-      <c r="D62" s="52"/>
-      <c r="E62" s="52"/>
-      <c r="F62" s="52"/>
-      <c r="G62" s="52"/>
-      <c r="H62" s="53"/>
+      <c r="C62" s="50">
+        <v>77.898869000000005</v>
+      </c>
+      <c r="D62" s="51">
+        <v>22.929966</v>
+      </c>
+      <c r="E62" s="51">
+        <v>2.2839049999999999</v>
+      </c>
+      <c r="F62" s="51">
+        <v>-3.1127410000000002</v>
+      </c>
+      <c r="G62" s="51">
+        <v>27.682051000000001</v>
+      </c>
+      <c r="H62" s="52">
+        <v>24.569310000000002</v>
+      </c>
     </row>
     <row r="63" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="49"/>
-      <c r="B63" s="50" t="s">
+      <c r="A63" s="48"/>
+      <c r="B63" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="C63" s="51"/>
-      <c r="D63" s="52"/>
-      <c r="E63" s="52"/>
-      <c r="F63" s="52"/>
-      <c r="G63" s="52"/>
-      <c r="H63" s="53"/>
+      <c r="C63" s="50">
+        <v>70.717183000000006</v>
+      </c>
+      <c r="D63" s="51">
+        <v>27.065564999999999</v>
+      </c>
+      <c r="E63" s="51">
+        <v>1.6351279999999999</v>
+      </c>
+      <c r="F63" s="51">
+        <v>0.58212399999999997</v>
+      </c>
+      <c r="G63" s="51">
+        <v>30.053965000000002</v>
+      </c>
+      <c r="H63" s="52">
+        <v>30.608872999999999</v>
+      </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="54"/>
-      <c r="B64" s="55" t="s">
+      <c r="A64" s="53"/>
+      <c r="B64" s="54" t="s">
         <v>125</v>
       </c>
-      <c r="C64" s="56"/>
-      <c r="D64" s="57"/>
-      <c r="E64" s="57"/>
-      <c r="F64" s="57"/>
-      <c r="G64" s="57"/>
-      <c r="H64" s="58"/>
+      <c r="C64" s="55">
+        <v>81.705747000000002</v>
+      </c>
+      <c r="D64" s="56">
+        <v>20.026733</v>
+      </c>
+      <c r="E64" s="56">
+        <v>0.318689</v>
+      </c>
+      <c r="F64" s="56">
+        <v>-2.0511689999999998</v>
+      </c>
+      <c r="G64" s="56">
+        <v>29.684425000000001</v>
+      </c>
+      <c r="H64" s="57">
+        <v>27.633255999999999</v>
+      </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="54"/>
-      <c r="B65" s="59" t="s">
+      <c r="A65" s="53"/>
+      <c r="B65" s="58" t="s">
         <v>126</v>
       </c>
-      <c r="C65" s="60"/>
-      <c r="D65" s="61"/>
-      <c r="E65" s="61"/>
-      <c r="F65" s="61"/>
-      <c r="G65" s="61"/>
-      <c r="H65" s="62"/>
+      <c r="C65" s="59">
+        <v>62.736727999999999</v>
+      </c>
+      <c r="D65" s="60">
+        <v>35.132542999999998</v>
+      </c>
+      <c r="E65" s="60">
+        <v>1.9410780000000001</v>
+      </c>
+      <c r="F65" s="60">
+        <v>0.18965199999999999</v>
+      </c>
+      <c r="G65" s="60">
+        <v>23.603743999999999</v>
+      </c>
+      <c r="H65" s="61">
+        <v>23.711656000000001</v>
+      </c>
     </row>
     <row r="66" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="54"/>
-      <c r="B66" s="63" t="s">
+      <c r="A66" s="53"/>
+      <c r="B66" s="62" t="s">
         <v>127</v>
       </c>
-      <c r="C66" s="64"/>
-      <c r="D66" s="65"/>
-      <c r="E66" s="65"/>
-      <c r="F66" s="65"/>
-      <c r="G66" s="65"/>
-      <c r="H66" s="66"/>
+      <c r="C66" s="63">
+        <v>71.085015999999996</v>
+      </c>
+      <c r="D66" s="64">
+        <v>26.853748</v>
+      </c>
+      <c r="E66" s="64">
+        <v>1.6683570000000001</v>
+      </c>
+      <c r="F66" s="64">
+        <v>0.39287899999999998</v>
+      </c>
+      <c r="G66" s="64">
+        <v>29.931474999999999</v>
+      </c>
+      <c r="H66" s="65">
+        <v>30.296980000000001</v>
+      </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="54"/>
-      <c r="B67" s="59" t="s">
+      <c r="A67" s="53"/>
+      <c r="B67" s="58" t="s">
         <v>128</v>
       </c>
-      <c r="C67" s="60"/>
-      <c r="D67" s="61"/>
-      <c r="E67" s="61"/>
-      <c r="F67" s="61"/>
-      <c r="G67" s="61"/>
-      <c r="H67" s="62"/>
+      <c r="C67" s="59">
+        <v>87.822081999999995</v>
+      </c>
+      <c r="D67" s="60">
+        <v>17.363810000000001</v>
+      </c>
+      <c r="E67" s="60">
+        <v>2.7140529999999998</v>
+      </c>
+      <c r="F67" s="60">
+        <v>-7.8999459999999999</v>
+      </c>
+      <c r="G67" s="60">
+        <v>26.863686000000001</v>
+      </c>
+      <c r="H67" s="61">
+        <v>18.963740000000001</v>
+      </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="54"/>
-      <c r="B68" s="59" t="s">
+      <c r="A68" s="53"/>
+      <c r="B68" s="58" t="s">
         <v>129</v>
       </c>
-      <c r="C68" s="60"/>
-      <c r="D68" s="61"/>
-      <c r="E68" s="61"/>
-      <c r="F68" s="61"/>
-      <c r="G68" s="61"/>
-      <c r="H68" s="62"/>
+      <c r="C68" s="59">
+        <v>80.824703999999997</v>
+      </c>
+      <c r="D68" s="60">
+        <v>22.146450000000002</v>
+      </c>
+      <c r="E68" s="60">
+        <v>2.9613839999999998</v>
+      </c>
+      <c r="F68" s="60">
+        <v>-5.9325380000000001</v>
+      </c>
+      <c r="G68" s="60">
+        <v>27.502846999999999</v>
+      </c>
+      <c r="H68" s="61">
+        <v>21.570309000000002</v>
+      </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="54"/>
-      <c r="B69" s="59" t="s">
+      <c r="A69" s="53"/>
+      <c r="B69" s="58" t="s">
         <v>130</v>
       </c>
-      <c r="C69" s="60"/>
-      <c r="D69" s="61"/>
-      <c r="E69" s="61"/>
-      <c r="F69" s="61"/>
-      <c r="G69" s="61"/>
-      <c r="H69" s="62"/>
+      <c r="C69" s="59">
+        <v>84.097352000000001</v>
+      </c>
+      <c r="D69" s="60">
+        <v>24.300426999999999</v>
+      </c>
+      <c r="E69" s="60">
+        <v>0.17643600000000001</v>
+      </c>
+      <c r="F69" s="60">
+        <v>-8.5742150000000006</v>
+      </c>
+      <c r="G69" s="60">
+        <v>28.290044999999999</v>
+      </c>
+      <c r="H69" s="61">
+        <v>19.715831000000001</v>
+      </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="54"/>
-      <c r="B70" s="59" t="s">
+      <c r="A70" s="53"/>
+      <c r="B70" s="58" t="s">
         <v>131</v>
       </c>
-      <c r="C70" s="60"/>
-      <c r="D70" s="61"/>
-      <c r="E70" s="61"/>
-      <c r="F70" s="61"/>
-      <c r="G70" s="61"/>
-      <c r="H70" s="62"/>
+      <c r="C70" s="59">
+        <v>67.301124999999999</v>
+      </c>
+      <c r="D70" s="60">
+        <v>24.890065</v>
+      </c>
+      <c r="E70" s="60">
+        <v>0.89022299999999999</v>
+      </c>
+      <c r="F70" s="60">
+        <v>6.9185860000000003</v>
+      </c>
+      <c r="G70" s="60">
+        <v>28.818745</v>
+      </c>
+      <c r="H70" s="61">
+        <v>35.737330999999998</v>
+      </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="54"/>
-      <c r="B71" s="59" t="s">
+      <c r="A71" s="53"/>
+      <c r="B71" s="58" t="s">
         <v>132</v>
       </c>
-      <c r="C71" s="60"/>
-      <c r="D71" s="61"/>
-      <c r="E71" s="61"/>
-      <c r="F71" s="61"/>
-      <c r="G71" s="61"/>
-      <c r="H71" s="62"/>
+      <c r="C71" s="59">
+        <v>74.143876000000006</v>
+      </c>
+      <c r="D71" s="60">
+        <v>28.240492</v>
+      </c>
+      <c r="E71" s="60">
+        <v>1.318695</v>
+      </c>
+      <c r="F71" s="60">
+        <v>-3.7030639999999999</v>
+      </c>
+      <c r="G71" s="60">
+        <v>23.968108000000001</v>
+      </c>
+      <c r="H71" s="61">
+        <v>20.265044</v>
+      </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="54"/>
-      <c r="B72" s="59" t="s">
+      <c r="A72" s="53"/>
+      <c r="B72" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="C72" s="60"/>
-      <c r="D72" s="61"/>
-      <c r="E72" s="61"/>
-      <c r="F72" s="61"/>
-      <c r="G72" s="61"/>
-      <c r="H72" s="62"/>
+      <c r="C72" s="59">
+        <v>86.818691999999999</v>
+      </c>
+      <c r="D72" s="60">
+        <v>22.895326000000001</v>
+      </c>
+      <c r="E72" s="60">
+        <v>-5.2333999999999999E-2</v>
+      </c>
+      <c r="F72" s="60">
+        <v>-9.6616839999999993</v>
+      </c>
+      <c r="G72" s="60">
+        <v>22.166402999999999</v>
+      </c>
+      <c r="H72" s="61">
+        <v>12.504719</v>
+      </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="54"/>
-      <c r="B73" s="59" t="s">
+      <c r="A73" s="53"/>
+      <c r="B73" s="58" t="s">
         <v>134</v>
       </c>
-      <c r="C73" s="60"/>
-      <c r="D73" s="61"/>
-      <c r="E73" s="61"/>
-      <c r="F73" s="61"/>
-      <c r="G73" s="61"/>
-      <c r="H73" s="62"/>
+      <c r="C73" s="59">
+        <v>76.685061000000005</v>
+      </c>
+      <c r="D73" s="60">
+        <v>22.052880999999999</v>
+      </c>
+      <c r="E73" s="60">
+        <v>0.71827399999999997</v>
+      </c>
+      <c r="F73" s="60">
+        <v>0.54378400000000005</v>
+      </c>
+      <c r="G73" s="60">
+        <v>33.352668000000001</v>
+      </c>
+      <c r="H73" s="61">
+        <v>33.896451999999996</v>
+      </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="54"/>
-      <c r="B74" s="59" t="s">
+      <c r="A74" s="53"/>
+      <c r="B74" s="58" t="s">
         <v>135</v>
       </c>
-      <c r="C74" s="60"/>
-      <c r="D74" s="61"/>
-      <c r="E74" s="61"/>
-      <c r="F74" s="61"/>
-      <c r="G74" s="61"/>
-      <c r="H74" s="62"/>
+      <c r="C74" s="59">
+        <v>68.109342999999996</v>
+      </c>
+      <c r="D74" s="60">
+        <v>27.390170999999999</v>
+      </c>
+      <c r="E74" s="60">
+        <v>4.364096</v>
+      </c>
+      <c r="F74" s="60">
+        <v>0.13639000000000001</v>
+      </c>
+      <c r="G74" s="60">
+        <v>37.712414000000003</v>
+      </c>
+      <c r="H74" s="61">
+        <v>37.848804000000001</v>
+      </c>
     </row>
     <row r="75" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="54"/>
-      <c r="B75" s="59" t="s">
+      <c r="A75" s="53"/>
+      <c r="B75" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="C75" s="67"/>
-      <c r="D75" s="68"/>
-      <c r="E75" s="68"/>
-      <c r="F75" s="68"/>
-      <c r="G75" s="68"/>
-      <c r="H75" s="69"/>
+      <c r="C75" s="66">
+        <v>57.820543000000001</v>
+      </c>
+      <c r="D75" s="67">
+        <v>34.501676000000003</v>
+      </c>
+      <c r="E75" s="67">
+        <v>1.5630999999999999E-2</v>
+      </c>
+      <c r="F75" s="67">
+        <v>7.6621499999999996</v>
+      </c>
+      <c r="G75" s="67">
+        <v>29.118248999999999</v>
+      </c>
+      <c r="H75" s="68">
+        <v>36.780399000000003</v>
+      </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="54"/>
-      <c r="B76" s="70" t="s">
+      <c r="A76" s="53"/>
+      <c r="B76" s="69" t="s">
         <v>137</v>
       </c>
-      <c r="C76" s="71"/>
-      <c r="D76" s="72"/>
-      <c r="E76" s="72"/>
-      <c r="F76" s="72"/>
-      <c r="G76" s="72"/>
-      <c r="H76" s="73"/>
+      <c r="C76" s="70">
+        <v>67.353847999999999</v>
+      </c>
+      <c r="D76" s="71">
+        <v>26.813673999999999</v>
+      </c>
+      <c r="E76" s="71">
+        <v>2.0911729999999999</v>
+      </c>
+      <c r="F76" s="71">
+        <v>3.7413050000000001</v>
+      </c>
+      <c r="G76" s="71">
+        <v>51.026077999999998</v>
+      </c>
+      <c r="H76" s="72">
+        <v>54.772978999999999</v>
+      </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="54"/>
-      <c r="B77" s="59" t="s">
+      <c r="A77" s="53"/>
+      <c r="B77" s="58" t="s">
         <v>138</v>
       </c>
-      <c r="C77" s="60"/>
-      <c r="D77" s="61"/>
-      <c r="E77" s="61"/>
-      <c r="F77" s="61"/>
-      <c r="G77" s="61"/>
-      <c r="H77" s="62"/>
+      <c r="C77" s="59">
+        <v>81.191132999999994</v>
+      </c>
+      <c r="D77" s="60">
+        <v>19.095790999999998</v>
+      </c>
+      <c r="E77" s="60">
+        <v>0.25987100000000002</v>
+      </c>
+      <c r="F77" s="60">
+        <v>-0.546794</v>
+      </c>
+      <c r="G77" s="60">
+        <v>23.060693000000001</v>
+      </c>
+      <c r="H77" s="61">
+        <v>22.513898999999999</v>
+      </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="54"/>
-      <c r="B78" s="59" t="s">
+      <c r="A78" s="53"/>
+      <c r="B78" s="58" t="s">
         <v>139</v>
       </c>
-      <c r="C78" s="60"/>
-      <c r="D78" s="61"/>
-      <c r="E78" s="61"/>
-      <c r="F78" s="61"/>
-      <c r="G78" s="61"/>
-      <c r="H78" s="62"/>
+      <c r="C78" s="59">
+        <v>74.438320000000004</v>
+      </c>
+      <c r="D78" s="60">
+        <v>21.941838000000001</v>
+      </c>
+      <c r="E78" s="60">
+        <v>2.2726199999999999</v>
+      </c>
+      <c r="F78" s="60">
+        <v>1.3472219999999999</v>
+      </c>
+      <c r="G78" s="60">
+        <v>53.415604999999999</v>
+      </c>
+      <c r="H78" s="61">
+        <v>54.762839</v>
+      </c>
     </row>
     <row r="79" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="54"/>
-      <c r="B79" s="63" t="s">
+      <c r="A79" s="53"/>
+      <c r="B79" s="62" t="s">
         <v>140</v>
       </c>
-      <c r="C79" s="64"/>
-      <c r="D79" s="65"/>
-      <c r="E79" s="65"/>
-      <c r="F79" s="65"/>
-      <c r="G79" s="65"/>
-      <c r="H79" s="66"/>
+      <c r="C79" s="63">
+        <v>77.000928999999999</v>
+      </c>
+      <c r="D79" s="64">
+        <v>22.598721999999999</v>
+      </c>
+      <c r="E79" s="64">
+        <v>1.422132</v>
+      </c>
+      <c r="F79" s="64">
+        <v>-1.021784</v>
+      </c>
+      <c r="G79" s="64">
+        <v>34.275157</v>
+      </c>
+      <c r="H79" s="65">
+        <v>33.253377999999998</v>
+      </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="54"/>
-      <c r="B80" s="70" t="s">
+      <c r="A80" s="53"/>
+      <c r="B80" s="69" t="s">
         <v>141</v>
       </c>
-      <c r="C80" s="71"/>
-      <c r="D80" s="72"/>
-      <c r="E80" s="72"/>
-      <c r="F80" s="72"/>
-      <c r="G80" s="72"/>
-      <c r="H80" s="73"/>
+      <c r="C80" s="70">
+        <v>53.821716000000002</v>
+      </c>
+      <c r="D80" s="71">
+        <v>30.595924</v>
+      </c>
+      <c r="E80" s="71">
+        <v>4.0532019999999997</v>
+      </c>
+      <c r="F80" s="71">
+        <v>11.529158000000001</v>
+      </c>
+      <c r="G80" s="71">
+        <v>23.211853999999999</v>
+      </c>
+      <c r="H80" s="72">
+        <v>34.741011999999998</v>
+      </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="54"/>
-      <c r="B81" s="59" t="s">
+      <c r="A81" s="53"/>
+      <c r="B81" s="58" t="s">
         <v>142</v>
       </c>
-      <c r="C81" s="60"/>
-      <c r="D81" s="61"/>
-      <c r="E81" s="61"/>
-      <c r="F81" s="61"/>
-      <c r="G81" s="61"/>
-      <c r="H81" s="62"/>
+      <c r="C81" s="59">
+        <v>62.546554</v>
+      </c>
+      <c r="D81" s="60">
+        <v>21.727478999999999</v>
+      </c>
+      <c r="E81" s="60">
+        <v>3.8887779999999998</v>
+      </c>
+      <c r="F81" s="60">
+        <v>11.837189</v>
+      </c>
+      <c r="G81" s="60">
+        <v>25.239070999999999</v>
+      </c>
+      <c r="H81" s="61">
+        <v>37.076259999999998</v>
+      </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="54"/>
-      <c r="B82" s="59" t="s">
+      <c r="A82" s="53"/>
+      <c r="B82" s="58" t="s">
         <v>143</v>
       </c>
-      <c r="C82" s="60"/>
-      <c r="D82" s="61"/>
-      <c r="E82" s="61"/>
-      <c r="F82" s="61"/>
-      <c r="G82" s="61"/>
-      <c r="H82" s="62"/>
+      <c r="C82" s="59">
+        <v>82.074162999999999</v>
+      </c>
+      <c r="D82" s="60">
+        <v>21.600588999999999</v>
+      </c>
+      <c r="E82" s="60">
+        <v>1.9770859999999999</v>
+      </c>
+      <c r="F82" s="60">
+        <v>-5.6518370000000004</v>
+      </c>
+      <c r="G82" s="60">
+        <v>28.457242000000001</v>
+      </c>
+      <c r="H82" s="61">
+        <v>22.805403999999999</v>
+      </c>
     </row>
     <row r="83" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="54"/>
-      <c r="B83" s="63" t="s">
+      <c r="A83" s="53"/>
+      <c r="B83" s="62" t="s">
         <v>144</v>
       </c>
-      <c r="C83" s="64"/>
-      <c r="D83" s="65"/>
-      <c r="E83" s="65"/>
-      <c r="F83" s="65"/>
-      <c r="G83" s="65"/>
-      <c r="H83" s="66"/>
+      <c r="C83" s="63">
+        <v>71.419728000000006</v>
+      </c>
+      <c r="D83" s="64">
+        <v>27.524557000000001</v>
+      </c>
+      <c r="E83" s="64">
+        <v>1.4413499999999999</v>
+      </c>
+      <c r="F83" s="64">
+        <v>-0.38563399999999998</v>
+      </c>
+      <c r="G83" s="64">
+        <v>30.471892</v>
+      </c>
+      <c r="H83" s="65">
+        <v>30.047511</v>
+      </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="54"/>
-      <c r="B84" s="70" t="s">
+      <c r="A84" s="53"/>
+      <c r="B84" s="69" t="s">
         <v>145</v>
       </c>
-      <c r="C84" s="71"/>
-      <c r="D84" s="72"/>
-      <c r="E84" s="72"/>
-      <c r="F84" s="72"/>
-      <c r="G84" s="72"/>
-      <c r="H84" s="73"/>
+      <c r="C84" s="70">
+        <v>89.550860999999998</v>
+      </c>
+      <c r="D84" s="71">
+        <v>20.750250999999999</v>
+      </c>
+      <c r="E84" s="71">
+        <v>1.0993470000000001</v>
+      </c>
+      <c r="F84" s="71">
+        <v>-11.400459</v>
+      </c>
+      <c r="G84" s="71">
+        <v>39.375411999999997</v>
+      </c>
+      <c r="H84" s="72">
+        <v>27.974952999999999</v>
+      </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="54"/>
-      <c r="B85" s="74" t="s">
+      <c r="A85" s="53"/>
+      <c r="B85" s="73" t="s">
         <v>146</v>
       </c>
-      <c r="C85" s="60"/>
-      <c r="D85" s="61"/>
-      <c r="E85" s="61"/>
-      <c r="F85" s="61"/>
-      <c r="G85" s="61"/>
-      <c r="H85" s="62"/>
+      <c r="C85" s="59">
+        <v>132.35325800000001</v>
+      </c>
+      <c r="D85" s="60">
+        <v>11.723898</v>
+      </c>
+      <c r="E85" s="60">
+        <v>0</v>
+      </c>
+      <c r="F85" s="60">
+        <v>-44.077156000000002</v>
+      </c>
+      <c r="G85" s="60">
+        <v>58.596122000000001</v>
+      </c>
+      <c r="H85" s="61">
+        <v>14.518966000000001</v>
+      </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="54"/>
-      <c r="B86" s="59" t="s">
+      <c r="A86" s="53"/>
+      <c r="B86" s="58" t="s">
         <v>147</v>
       </c>
-      <c r="C86" s="60"/>
-      <c r="D86" s="61"/>
-      <c r="E86" s="61"/>
-      <c r="F86" s="61"/>
-      <c r="G86" s="61"/>
-      <c r="H86" s="62"/>
+      <c r="C86" s="59">
+        <v>78.448723999999999</v>
+      </c>
+      <c r="D86" s="60">
+        <v>23.457533999999999</v>
+      </c>
+      <c r="E86" s="60">
+        <v>2.4155389999999999</v>
+      </c>
+      <c r="F86" s="60">
+        <v>-4.3217970000000001</v>
+      </c>
+      <c r="G86" s="60">
+        <v>26.517388</v>
+      </c>
+      <c r="H86" s="61">
+        <v>22.195591</v>
+      </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="54"/>
-      <c r="B87" s="59" t="s">
+      <c r="A87" s="53"/>
+      <c r="B87" s="58" t="s">
         <v>148</v>
       </c>
-      <c r="C87" s="60"/>
-      <c r="D87" s="61"/>
-      <c r="E87" s="61"/>
-      <c r="F87" s="61"/>
-      <c r="G87" s="61"/>
-      <c r="H87" s="62"/>
+      <c r="C87" s="59">
+        <v>74.607021000000003</v>
+      </c>
+      <c r="D87" s="60">
+        <v>28.770408</v>
+      </c>
+      <c r="E87" s="60">
+        <v>2.092498</v>
+      </c>
+      <c r="F87" s="60">
+        <v>-5.4699270000000002</v>
+      </c>
+      <c r="G87" s="60">
+        <v>28.109528999999998</v>
+      </c>
+      <c r="H87" s="61">
+        <v>21.967641</v>
+      </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="54"/>
-      <c r="B88" s="59" t="s">
+      <c r="A88" s="53"/>
+      <c r="B88" s="58" t="s">
         <v>149</v>
       </c>
-      <c r="C88" s="60"/>
-      <c r="D88" s="61"/>
-      <c r="E88" s="61"/>
-      <c r="F88" s="61"/>
-      <c r="G88" s="61"/>
-      <c r="H88" s="62"/>
+      <c r="C88" s="59">
+        <v>69.703879000000001</v>
+      </c>
+      <c r="D88" s="60">
+        <v>21.743006000000001</v>
+      </c>
+      <c r="E88" s="60">
+        <v>2.846962</v>
+      </c>
+      <c r="F88" s="60">
+        <v>5.7061539999999997</v>
+      </c>
+      <c r="G88" s="60">
+        <v>27.918783999999999</v>
+      </c>
+      <c r="H88" s="61">
+        <v>33.624938</v>
+      </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="54"/>
-      <c r="B89" s="59" t="s">
+      <c r="A89" s="53"/>
+      <c r="B89" s="58" t="s">
         <v>150</v>
       </c>
-      <c r="C89" s="60"/>
-      <c r="D89" s="61"/>
-      <c r="E89" s="61"/>
-      <c r="F89" s="61"/>
-      <c r="G89" s="61"/>
-      <c r="H89" s="62"/>
+      <c r="C89" s="59">
+        <v>63.158011999999999</v>
+      </c>
+      <c r="D89" s="60">
+        <v>33.430593000000002</v>
+      </c>
+      <c r="E89" s="60">
+        <v>1.752076</v>
+      </c>
+      <c r="F89" s="60">
+        <v>1.659319</v>
+      </c>
+      <c r="G89" s="60">
+        <v>24.959133000000001</v>
+      </c>
+      <c r="H89" s="61">
+        <v>26.618452000000001</v>
+      </c>
     </row>
     <row r="90" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="54"/>
-      <c r="B90" s="63" t="s">
+      <c r="A90" s="53"/>
+      <c r="B90" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="C90" s="64"/>
-      <c r="D90" s="65"/>
-      <c r="E90" s="65"/>
-      <c r="F90" s="65"/>
-      <c r="G90" s="65"/>
-      <c r="H90" s="66"/>
+      <c r="C90" s="63">
+        <v>74.845855999999998</v>
+      </c>
+      <c r="D90" s="64">
+        <v>22.311444999999999</v>
+      </c>
+      <c r="E90" s="64">
+        <v>1.444839</v>
+      </c>
+      <c r="F90" s="64">
+        <v>1.3978600000000001</v>
+      </c>
+      <c r="G90" s="64">
+        <v>34.028908000000001</v>
+      </c>
+      <c r="H90" s="65">
+        <v>35.426772</v>
+      </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="54"/>
-      <c r="B91" s="70" t="s">
+      <c r="A91" s="53"/>
+      <c r="B91" s="69" t="s">
         <v>152</v>
       </c>
-      <c r="C91" s="71"/>
-      <c r="D91" s="72"/>
-      <c r="E91" s="72"/>
-      <c r="F91" s="72"/>
-      <c r="G91" s="72"/>
-      <c r="H91" s="73"/>
+      <c r="C91" s="70">
+        <v>77.301479</v>
+      </c>
+      <c r="D91" s="71">
+        <v>27.117809000000001</v>
+      </c>
+      <c r="E91" s="71">
+        <v>1.005441</v>
+      </c>
+      <c r="F91" s="71">
+        <v>-5.4247290000000001</v>
+      </c>
+      <c r="G91" s="71">
+        <v>31.300194000000001</v>
+      </c>
+      <c r="H91" s="72">
+        <v>25.875464000000001</v>
+      </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="54"/>
-      <c r="B92" s="59" t="s">
+      <c r="A92" s="53"/>
+      <c r="B92" s="58" t="s">
         <v>153</v>
       </c>
-      <c r="C92" s="60"/>
-      <c r="D92" s="61"/>
-      <c r="E92" s="61"/>
-      <c r="F92" s="61"/>
-      <c r="G92" s="61"/>
-      <c r="H92" s="62"/>
+      <c r="C92" s="59">
+        <v>80.671457000000004</v>
+      </c>
+      <c r="D92" s="60">
+        <v>30.310013999999999</v>
+      </c>
+      <c r="E92" s="60">
+        <v>0.78018799999999999</v>
+      </c>
+      <c r="F92" s="60">
+        <v>-11.761659</v>
+      </c>
+      <c r="G92" s="60">
+        <v>28.395101</v>
+      </c>
+      <c r="H92" s="61">
+        <v>16.633441999999999</v>
+      </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="54"/>
-      <c r="B93" s="59" t="s">
+      <c r="A93" s="53"/>
+      <c r="B93" s="58" t="s">
         <v>154</v>
       </c>
-      <c r="C93" s="60"/>
-      <c r="D93" s="61"/>
-      <c r="E93" s="61"/>
-      <c r="F93" s="61"/>
-      <c r="G93" s="61"/>
-      <c r="H93" s="62"/>
+      <c r="C93" s="59">
+        <v>93.731505999999996</v>
+      </c>
+      <c r="D93" s="60">
+        <v>21.409058999999999</v>
+      </c>
+      <c r="E93" s="60">
+        <v>0.33355400000000002</v>
+      </c>
+      <c r="F93" s="60">
+        <v>-15.474119999999999</v>
+      </c>
+      <c r="G93" s="60">
+        <v>64.103933999999995</v>
+      </c>
+      <c r="H93" s="61">
+        <v>48.629815000000001</v>
+      </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="54"/>
-      <c r="B94" s="59" t="s">
+      <c r="A94" s="53"/>
+      <c r="B94" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="C94" s="60"/>
-      <c r="D94" s="61"/>
-      <c r="E94" s="61"/>
-      <c r="F94" s="61"/>
-      <c r="G94" s="61"/>
-      <c r="H94" s="62"/>
+      <c r="C94" s="59">
+        <v>53.508035</v>
+      </c>
+      <c r="D94" s="60">
+        <v>22.753523000000001</v>
+      </c>
+      <c r="E94" s="60">
+        <v>1.158264</v>
+      </c>
+      <c r="F94" s="60">
+        <v>22.580178</v>
+      </c>
+      <c r="G94" s="60">
+        <v>107.992604</v>
+      </c>
+      <c r="H94" s="61">
+        <v>130.57278199999999</v>
+      </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="54"/>
-      <c r="B95" s="59" t="s">
+      <c r="A95" s="53"/>
+      <c r="B95" s="58" t="s">
         <v>156</v>
       </c>
-      <c r="C95" s="60"/>
-      <c r="D95" s="61"/>
-      <c r="E95" s="61"/>
-      <c r="F95" s="61"/>
-      <c r="G95" s="61"/>
-      <c r="H95" s="62"/>
+      <c r="C95" s="59">
+        <v>84.279094999999998</v>
+      </c>
+      <c r="D95" s="60">
+        <v>23.092624000000001</v>
+      </c>
+      <c r="E95" s="60">
+        <v>1.184339</v>
+      </c>
+      <c r="F95" s="60">
+        <v>-8.5560589999999994</v>
+      </c>
+      <c r="G95" s="60">
+        <v>28.218715</v>
+      </c>
+      <c r="H95" s="61">
+        <v>19.662656999999999</v>
+      </c>
     </row>
     <row r="96" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="54"/>
-      <c r="B96" s="63" t="s">
+      <c r="A96" s="53"/>
+      <c r="B96" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="C96" s="64"/>
-      <c r="D96" s="65"/>
-      <c r="E96" s="65"/>
-      <c r="F96" s="65"/>
-      <c r="G96" s="65"/>
-      <c r="H96" s="66"/>
+      <c r="C96" s="63">
+        <v>75.464551999999998</v>
+      </c>
+      <c r="D96" s="64">
+        <v>22.530092</v>
+      </c>
+      <c r="E96" s="64">
+        <v>3.0842960000000001</v>
+      </c>
+      <c r="F96" s="64">
+        <v>-1.07894</v>
+      </c>
+      <c r="G96" s="64">
+        <v>37.560927</v>
+      </c>
+      <c r="H96" s="65">
+        <v>36.481985999999999</v>
+      </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="54"/>
-      <c r="B97" s="70" t="s">
+      <c r="A97" s="53"/>
+      <c r="B97" s="69" t="s">
         <v>158</v>
       </c>
-      <c r="C97" s="71"/>
-      <c r="D97" s="72"/>
-      <c r="E97" s="72"/>
-      <c r="F97" s="72"/>
-      <c r="G97" s="72"/>
-      <c r="H97" s="73"/>
+      <c r="C97" s="70">
+        <v>74.779135999999994</v>
+      </c>
+      <c r="D97" s="71">
+        <v>27.411359999999998</v>
+      </c>
+      <c r="E97" s="71">
+        <v>0.82458699999999996</v>
+      </c>
+      <c r="F97" s="71">
+        <v>-3.0150830000000002</v>
+      </c>
+      <c r="G97" s="71">
+        <v>24.678049999999999</v>
+      </c>
+      <c r="H97" s="72">
+        <v>21.662967999999999</v>
+      </c>
     </row>
     <row r="98" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="54"/>
-      <c r="B98" s="63" t="s">
+      <c r="A98" s="53"/>
+      <c r="B98" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="C98" s="64"/>
-      <c r="D98" s="65"/>
-      <c r="E98" s="65"/>
-      <c r="F98" s="65"/>
-      <c r="G98" s="65"/>
-      <c r="H98" s="66"/>
+      <c r="C98" s="63">
+        <v>79.852588999999995</v>
+      </c>
+      <c r="D98" s="64">
+        <v>22.771578000000002</v>
+      </c>
+      <c r="E98" s="64">
+        <v>4.6316810000000004</v>
+      </c>
+      <c r="F98" s="64">
+        <v>-7.2558480000000003</v>
+      </c>
+      <c r="G98" s="64">
+        <v>25.660692000000001</v>
+      </c>
+      <c r="H98" s="65">
+        <v>18.404844000000001</v>
+      </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="75"/>
-      <c r="B99" s="76"/>
-      <c r="C99" s="68"/>
-      <c r="D99" s="68"/>
-      <c r="E99" s="68"/>
-      <c r="F99" s="68"/>
-      <c r="G99" s="68"/>
-      <c r="H99" s="68"/>
+      <c r="A99" s="74"/>
+      <c r="B99" s="75"/>
+      <c r="C99" s="67"/>
+      <c r="D99" s="67"/>
+      <c r="E99" s="67"/>
+      <c r="F99" s="67"/>
+      <c r="G99" s="67"/>
+      <c r="H99" s="67"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C100" s="77"/>
-      <c r="D100" s="77"/>
-      <c r="E100" s="77"/>
-      <c r="F100" s="77"/>
-      <c r="G100" s="77"/>
-      <c r="H100" s="77"/>
+      <c r="C100" s="76"/>
+      <c r="D100" s="76"/>
+      <c r="E100" s="76"/>
+      <c r="F100" s="76"/>
+      <c r="G100" s="76"/>
+      <c r="H100" s="76"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C101" s="77"/>
-      <c r="D101" s="77"/>
-      <c r="E101" s="77"/>
-      <c r="F101" s="77"/>
-      <c r="G101" s="77"/>
-      <c r="H101" s="77"/>
+      <c r="C101" s="76"/>
+      <c r="D101" s="76"/>
+      <c r="E101" s="76"/>
+      <c r="F101" s="76"/>
+      <c r="G101" s="76"/>
+      <c r="H101" s="76"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C102" s="77"/>
-      <c r="D102" s="77"/>
-      <c r="E102" s="77"/>
-      <c r="F102" s="77"/>
-      <c r="G102" s="77"/>
-      <c r="H102" s="77"/>
+      <c r="C102" s="76"/>
+      <c r="D102" s="76"/>
+      <c r="E102" s="76"/>
+      <c r="F102" s="76"/>
+      <c r="G102" s="76"/>
+      <c r="H102" s="76"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C103" s="77"/>
-      <c r="D103" s="77"/>
-      <c r="E103" s="77"/>
-      <c r="F103" s="77"/>
-      <c r="G103" s="77"/>
-      <c r="H103" s="77"/>
+      <c r="C103" s="76"/>
+      <c r="D103" s="76"/>
+      <c r="E103" s="76"/>
+      <c r="F103" s="76"/>
+      <c r="G103" s="76"/>
+      <c r="H103" s="76"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C104" s="77"/>
-      <c r="D104" s="77"/>
-      <c r="E104" s="77"/>
-      <c r="F104" s="77"/>
-      <c r="G104" s="77"/>
-      <c r="H104" s="77"/>
+      <c r="C104" s="76"/>
+      <c r="D104" s="76"/>
+      <c r="E104" s="76"/>
+      <c r="F104" s="76"/>
+      <c r="G104" s="76"/>
+      <c r="H104" s="76"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C105" s="77"/>
-      <c r="D105" s="77"/>
-      <c r="E105" s="77"/>
-      <c r="F105" s="77"/>
-      <c r="G105" s="77"/>
-      <c r="H105" s="77"/>
+      <c r="C105" s="76"/>
+      <c r="D105" s="76"/>
+      <c r="E105" s="76"/>
+      <c r="F105" s="76"/>
+      <c r="G105" s="76"/>
+      <c r="H105" s="76"/>
     </row>
     <row r="106" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B106" s="78"/>
-      <c r="C106" s="77"/>
-      <c r="D106" s="77"/>
-      <c r="E106" s="77"/>
-      <c r="F106" s="77"/>
-      <c r="G106" s="77"/>
-      <c r="H106" s="77"/>
+      <c r="B106" s="77"/>
+      <c r="C106" s="76"/>
+      <c r="D106" s="76"/>
+      <c r="E106" s="76"/>
+      <c r="F106" s="76"/>
+      <c r="G106" s="76"/>
+      <c r="H106" s="76"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B107" s="79" t="s">
+      <c r="B107" s="78" t="s">
         <v>165</v>
       </c>
-      <c r="C107" s="77"/>
-      <c r="D107" s="77"/>
-      <c r="E107" s="77"/>
-      <c r="F107" s="77"/>
-      <c r="G107" s="77"/>
-      <c r="H107" s="77"/>
+      <c r="C107" s="76"/>
+      <c r="D107" s="76"/>
+      <c r="E107" s="76"/>
+      <c r="F107" s="76"/>
+      <c r="G107" s="76"/>
+      <c r="H107" s="76"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B108" s="2"/>
-      <c r="C108" s="77"/>
-      <c r="D108" s="77"/>
-      <c r="E108" s="77"/>
-      <c r="F108" s="77"/>
-      <c r="G108" s="77"/>
-      <c r="H108" s="77"/>
+      <c r="C108" s="76"/>
+      <c r="D108" s="76"/>
+      <c r="E108" s="76"/>
+      <c r="F108" s="76"/>
+      <c r="G108" s="76"/>
+      <c r="H108" s="76"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B109" s="2" t="s">
+      <c r="B109" s="81" t="s">
         <v>167</v>
       </c>
-      <c r="C109" s="77"/>
-      <c r="D109" s="77"/>
-      <c r="E109" s="77"/>
-      <c r="F109" s="77"/>
-      <c r="G109" s="77"/>
-      <c r="H109" s="77"/>
+      <c r="C109" s="76"/>
+      <c r="D109" s="76"/>
+      <c r="E109" s="76"/>
+      <c r="F109" s="76"/>
+      <c r="G109" s="76"/>
+      <c r="H109" s="76"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B110" s="2" t="s">
+      <c r="B110" s="81" t="s">
         <v>168</v>
       </c>
-      <c r="C110" s="77"/>
-      <c r="D110" s="77"/>
-      <c r="E110" s="77"/>
-      <c r="F110" s="77"/>
-      <c r="G110" s="77"/>
-      <c r="H110" s="77"/>
+      <c r="C110" s="76"/>
+      <c r="D110" s="76"/>
+      <c r="E110" s="76"/>
+      <c r="F110" s="76"/>
+      <c r="G110" s="76"/>
+      <c r="H110" s="76"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B111" s="82" t="s">
+      <c r="B111" s="81" t="s">
         <v>169</v>
       </c>
-      <c r="C111" s="77"/>
-      <c r="D111" s="77"/>
-      <c r="E111" s="77"/>
-      <c r="F111" s="77"/>
-      <c r="G111" s="77"/>
-      <c r="H111" s="77"/>
+      <c r="C111" s="76"/>
+      <c r="D111" s="76"/>
+      <c r="E111" s="76"/>
+      <c r="F111" s="76"/>
+      <c r="G111" s="76"/>
+      <c r="H111" s="76"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B112" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C112" s="77"/>
-      <c r="D112" s="77"/>
-      <c r="E112" s="77"/>
-      <c r="F112" s="77"/>
-      <c r="G112" s="77"/>
-      <c r="H112" s="77"/>
+      <c r="C112" s="76"/>
+      <c r="D112" s="76"/>
+      <c r="E112" s="76"/>
+      <c r="F112" s="76"/>
+      <c r="G112" s="76"/>
+      <c r="H112" s="76"/>
     </row>
     <row r="113" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B113" s="80"/>
-      <c r="C113" s="77"/>
-      <c r="D113" s="77"/>
-      <c r="E113" s="77"/>
-      <c r="F113" s="77"/>
-      <c r="G113" s="77"/>
-      <c r="H113" s="77"/>
+      <c r="B113" s="79"/>
+      <c r="C113" s="76"/>
+      <c r="D113" s="76"/>
+      <c r="E113" s="76"/>
+      <c r="F113" s="76"/>
+      <c r="G113" s="76"/>
+      <c r="H113" s="76"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D4:O7"/>
-  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B113" r:id="rId1" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{24C58412-0E01-440F-8030-3F13EFA93F07}"/>
-    <hyperlink ref="B109" r:id="rId2" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{FF723DE0-386F-494E-92D8-BF6DE982E021}"/>
-    <hyperlink ref="B110" r:id="rId3" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{4C2358C7-4EE8-416F-9C86-A7193D77C528}"/>
-    <hyperlink ref="B107" r:id="rId4" display="If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please click here the visit the Africa's Development Dynamics website." xr:uid="{24E8B0C7-5FFC-4FB9-A3A7-19C3BECB4286}"/>
-    <hyperlink ref="B112" r:id="rId5" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{7481432F-4E42-44AD-9F14-B058B17E79CF}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{06D73BCD-8881-4142-9553-ECCC71E9B233}"/>
+    <hyperlink ref="B113" r:id="rId1" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{30B72274-05A5-470E-BF82-7D6E37834DF4}"/>
+    <hyperlink ref="B109" r:id="rId2" xr:uid="{BDAF80FB-7A9A-4765-84D5-6050E30DF0F6}"/>
+    <hyperlink ref="B110" r:id="rId3" xr:uid="{D1409AB6-16D0-4269-ACC1-E16BDF37C5EA}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{3239440E-B824-4A89-9683-5E287A319723}"/>
+    <hyperlink ref="B112" r:id="rId5" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{DFDB912F-4788-49A0-8BEB-4208CC3ABFD4}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{3AA3C1C5-3BFA-489F-AE23-937036706F6D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="95" fitToHeight="0" orientation="portrait" r:id="rId7"/>

--- a/AfDD_2025_Annex_Table_Tab09.xlsx
+++ b/AfDD_2025_Annex_Table_Tab09.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65B3BB12-6D36-42F7-8519-D51848289A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E410A5B-CC30-41F8-9EFE-520DDCE65625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{9B184AE7-1CF8-44A6-91FB-0B6C4F274097}"/>
+    <workbookView xWindow="28680" yWindow="-6075" windowWidth="29040" windowHeight="15720" xr2:uid="{26F629ED-0585-48C6-AAA2-B4F950E034B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab09" sheetId="1" r:id="rId1"/>
@@ -528,10 +528,10 @@
     <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
   </si>
   <si>
-    <t>Regional Economic Communities: CEN-SAD = "Community of Sahel-Saharan States"; COMESA = "Common Market for Eastern and Southern Africa"; EAC = "East African Community"; ECCAS = "Economic Community of Central African States"; ECOWAS = "Economic Community of West African States"; IGAD = "Intergovernmental Authority on Development"; SADC = "Southern African Development Community"; UMA = "Arab Maghreb Union"; PALOP = "PaÃ­ses Africanos de LÃ­ngua Oficial Portuguesa"; ASEAN = "Association of Southeast Asian Nations"; MERCOSUR = "Mercado ComÃºn del Sur". EU27 = "European Union (27 members)". OECD = "Organisation for Economic Co-operation and Development".</t>
-  </si>
-  <si>
-    <t>Source: Author's calculations based on IMF World Economic Outlook Database April 2025. Figures are adjusted so consumption, capital formation, changes in inventories and foreign balances as a percentage of GDP add up to 100.</t>
+    <t>Regional Economic Communities: CEN-SAD = "Community of Sahel-Saharan States"; COMESA = "Common Market for Eastern and Southern Africa"; EAC = "East African Community"; ECCAS = "Economic Community of Central African States"; ECOWAS = "Economic Community of West African States"; IGAD = "Intergovernmental Authority on Development"; SADC = "Southern African Development Community"; UMA = "Arab Maghreb Union"; PALOP = "Países Africanos de Língua Oficial Portuguesa"; ASEAN = "Association of Southeast Asian Nations"; MERCOSUR = "Mercado Común del Sur". EU27 = "European Union (27 members)". OECD = "Organisation for Economic Co-operation and Development".</t>
+  </si>
+  <si>
+    <t>Source: Author's calculations based on IMF World Economic Outlook Database October 2025. Figures are adjusted so consumption, capital formation, changes in inventories and foreign balances as a percentage of GDP add up to 100.</t>
   </si>
   <si>
     <t>CLICK HERE to visit the website where you can find the Africa's Development Dynamics report, and where you can find links to explore these data further and look up historic values for these indicators.</t>
@@ -1436,7 +1436,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEC5A96E-59AD-4158-87DB-7514395309FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F348B5A-B5C9-4C46-BA7F-DCF5125A5D6D}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1444,15 +1444,15 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="14.140625" style="80" customWidth="1"/>
-    <col min="9" max="15" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="14.1796875" style="80" customWidth="1"/>
+    <col min="9" max="15" width="14.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1463,7 +1463,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>9</v>
       </c>
@@ -1497,10 +1497,10 @@
         <v>10</v>
       </c>
       <c r="C3" s="11">
-        <v>51.281185000000001</v>
+        <v>51.480925999999997</v>
       </c>
       <c r="D3" s="12">
-        <v>33.585650000000001</v>
+        <v>33.385908000000001</v>
       </c>
       <c r="E3" s="12">
         <v>0</v>
@@ -1515,7 +1515,7 @@
         <v>35.186388999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>11</v>
       </c>
@@ -1523,25 +1523,25 @@
         <v>12</v>
       </c>
       <c r="C4" s="15">
-        <v>72.475521999999998</v>
+        <v>70.779066999999998</v>
       </c>
       <c r="D4" s="16">
-        <v>25.295860999999999</v>
+        <v>25.236989000000001</v>
       </c>
       <c r="E4" s="16">
-        <v>0.694241</v>
+        <v>2.458634</v>
       </c>
       <c r="F4" s="16">
-        <v>1.534375</v>
+        <v>1.5253099999999999</v>
       </c>
       <c r="G4" s="16">
-        <v>43.746223000000001</v>
+        <v>43.487755999999997</v>
       </c>
       <c r="H4" s="17">
-        <v>45.280597999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>45.013066000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>13</v>
       </c>
@@ -1549,25 +1549,25 @@
         <v>14</v>
       </c>
       <c r="C5" s="15">
-        <v>102.61821500000001</v>
+        <v>88.756832000000003</v>
       </c>
       <c r="D5" s="19">
-        <v>15.251552999999999</v>
+        <v>7.1748989999999999</v>
       </c>
       <c r="E5" s="19">
-        <v>0</v>
+        <v>7.6531399999999996</v>
       </c>
       <c r="F5" s="19">
-        <v>-17.869768000000001</v>
+        <v>-3.5848719999999998</v>
       </c>
       <c r="G5" s="19">
-        <v>71.536499000000006</v>
+        <v>48.132154</v>
       </c>
       <c r="H5" s="20">
-        <v>53.666730999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>44.547283</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>15</v>
       </c>
@@ -1593,7 +1593,7 @@
         <v>46.625610999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>18</v>
       </c>
       <c r="C7" s="15">
-        <v>105.270004</v>
+        <v>105.270859</v>
       </c>
       <c r="D7" s="19">
         <v>13.157645</v>
@@ -1610,16 +1610,16 @@
         <v>0.218747</v>
       </c>
       <c r="F7" s="19">
-        <v>-18.646394999999998</v>
+        <v>-18.647251000000001</v>
       </c>
       <c r="G7" s="19">
-        <v>30.490154</v>
+        <v>30.490497000000001</v>
       </c>
       <c r="H7" s="20">
-        <v>11.843757999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>11.843246000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>19</v>
       </c>
@@ -1645,7 +1645,7 @@
         <v>49.826951000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>21</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>42.874285</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>23</v>
       </c>
@@ -1679,25 +1679,25 @@
         <v>24</v>
       </c>
       <c r="C10" s="21">
-        <v>82.592574999999997</v>
+        <v>82.196151</v>
       </c>
       <c r="D10" s="19">
-        <v>14.091899</v>
+        <v>14.182483</v>
       </c>
       <c r="E10" s="19">
-        <v>1.351971</v>
+        <v>1.4896199999999999</v>
       </c>
       <c r="F10" s="19">
-        <v>1.9635549999999999</v>
+        <v>2.131745</v>
       </c>
       <c r="G10" s="19">
-        <v>31.470223000000001</v>
+        <v>31.407696000000001</v>
       </c>
       <c r="H10" s="20">
-        <v>33.433777999999997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>33.539440999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>25</v>
       </c>
@@ -1723,7 +1723,7 @@
         <v>40.194023999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="9" t="s">
         <v>27</v>
       </c>
@@ -1749,31 +1749,31 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="26"/>
       <c r="B13" s="27" t="s">
         <v>30</v>
       </c>
       <c r="C13" s="28">
-        <v>75.690844999999996</v>
+        <v>75.319815000000006</v>
       </c>
       <c r="D13" s="29">
-        <v>20.44802</v>
+        <v>20.390248</v>
       </c>
       <c r="E13" s="29">
-        <v>1.0263279999999999</v>
+        <v>1.230755</v>
       </c>
       <c r="F13" s="29">
-        <v>2.8348070000000001</v>
+        <v>3.0591819999999998</v>
       </c>
       <c r="G13" s="29">
-        <v>32.168647999999997</v>
+        <v>31.92126</v>
       </c>
       <c r="H13" s="30">
-        <v>35.003455000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>34.980443000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>31</v>
       </c>
@@ -1781,25 +1781,25 @@
         <v>32</v>
       </c>
       <c r="C14" s="21">
-        <v>106.607387</v>
+        <v>107.696279</v>
       </c>
       <c r="D14" s="19">
-        <v>19.605625</v>
+        <v>19.604666999999999</v>
       </c>
       <c r="E14" s="19">
         <v>1.331512</v>
       </c>
       <c r="F14" s="19">
-        <v>-27.544523999999999</v>
+        <v>-28.632458</v>
       </c>
       <c r="G14" s="19">
-        <v>35.978101000000002</v>
+        <v>36.204509000000002</v>
       </c>
       <c r="H14" s="20">
-        <v>8.4335769999999997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>7.5720510000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
         <v>33</v>
       </c>
@@ -1825,7 +1825,7 @@
         <v>19.321650999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
         <v>35</v>
       </c>
@@ -1833,25 +1833,25 @@
         <v>36</v>
       </c>
       <c r="C16" s="21">
-        <v>105.34641499999999</v>
+        <v>104.880994</v>
       </c>
       <c r="D16" s="19">
-        <v>14.850726</v>
+        <v>14.824349</v>
       </c>
       <c r="E16" s="19">
         <v>0</v>
       </c>
       <c r="F16" s="19">
-        <v>-20.197140999999998</v>
+        <v>-19.705342999999999</v>
       </c>
       <c r="G16" s="19">
-        <v>33.919688999999998</v>
+        <v>33.082887999999997</v>
       </c>
       <c r="H16" s="20">
-        <v>13.722548</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13.377546000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
         <v>37</v>
       </c>
@@ -1859,25 +1859,25 @@
         <v>38</v>
       </c>
       <c r="C17" s="32">
-        <v>66.546167999999994</v>
+        <v>65.865268</v>
       </c>
       <c r="D17" s="33">
-        <v>14.527801999999999</v>
+        <v>14.379154</v>
       </c>
       <c r="E17" s="33">
-        <v>14.930736</v>
+        <v>14.287808</v>
       </c>
       <c r="F17" s="33">
-        <v>3.9952939999999999</v>
+        <v>5.4677699999999998</v>
       </c>
       <c r="G17" s="33">
-        <v>31.079367999999999</v>
+        <v>31.20016</v>
       </c>
       <c r="H17" s="34">
-        <v>35.074663000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>36.667929999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>39</v>
       </c>
@@ -1885,7 +1885,7 @@
         <v>40</v>
       </c>
       <c r="C18" s="32">
-        <v>45.100403</v>
+        <v>45.752603000000001</v>
       </c>
       <c r="D18" s="33">
         <v>26.278915000000001</v>
@@ -1894,16 +1894,16 @@
         <v>0.115027</v>
       </c>
       <c r="F18" s="33">
-        <v>28.505655999999998</v>
+        <v>27.853455</v>
       </c>
       <c r="G18" s="33">
-        <v>41.211452000000001</v>
+        <v>41.863652000000002</v>
       </c>
       <c r="H18" s="34">
         <v>69.717107999999996</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
         <v>41</v>
       </c>
@@ -1911,25 +1911,25 @@
         <v>42</v>
       </c>
       <c r="C19" s="15">
-        <v>92.823955999999995</v>
+        <v>92.722262000000001</v>
       </c>
       <c r="D19" s="16">
-        <v>11.983893</v>
+        <v>11.879386999999999</v>
       </c>
       <c r="E19" s="16">
         <v>0</v>
       </c>
       <c r="F19" s="16">
-        <v>-4.807849</v>
+        <v>-4.6016490000000001</v>
       </c>
       <c r="G19" s="16">
-        <v>50.022711999999999</v>
+        <v>47.877332000000003</v>
       </c>
       <c r="H19" s="17">
-        <v>45.214863000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>43.275683000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
         <v>43</v>
       </c>
@@ -1937,7 +1937,7 @@
         <v>44</v>
       </c>
       <c r="C20" s="32">
-        <v>41.116520000000001</v>
+        <v>36.640548000000003</v>
       </c>
       <c r="D20" s="33">
         <v>29.572710000000001</v>
@@ -1946,16 +1946,16 @@
         <v>-0.67619799999999997</v>
       </c>
       <c r="F20" s="33">
-        <v>29.986968000000001</v>
+        <v>34.462940000000003</v>
       </c>
       <c r="G20" s="33">
-        <v>18.474419000000001</v>
+        <v>13.998405999999999</v>
       </c>
       <c r="H20" s="34">
-        <v>48.461387000000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>48.461345999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
         <v>45</v>
       </c>
@@ -1981,7 +1981,7 @@
         <v>46.603994</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="9" t="s">
         <v>47</v>
       </c>
@@ -1989,49 +1989,49 @@
         <v>48</v>
       </c>
       <c r="C22" s="36">
-        <v>91.757450000000006</v>
+        <v>91.698256000000001</v>
       </c>
       <c r="D22" s="37">
-        <v>37.840527000000002</v>
+        <v>38.044646999999998</v>
       </c>
       <c r="E22" s="37">
         <v>0</v>
       </c>
       <c r="F22" s="37">
-        <v>-29.597977</v>
+        <v>-29.742902000000001</v>
       </c>
       <c r="G22" s="37">
-        <v>47.363567000000003</v>
+        <v>47.508491999999997</v>
       </c>
       <c r="H22" s="38">
-        <v>17.765588999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>17.76559</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="26"/>
       <c r="B23" s="27" t="s">
         <v>49</v>
       </c>
       <c r="C23" s="28">
-        <v>76.639263999999997</v>
+        <v>76.527894000000003</v>
       </c>
       <c r="D23" s="29">
-        <v>18.746905999999999</v>
+        <v>18.600601999999999</v>
       </c>
       <c r="E23" s="29">
-        <v>1.497193</v>
+        <v>1.4264669999999999</v>
       </c>
       <c r="F23" s="29">
-        <v>3.1166369999999999</v>
+        <v>3.445036</v>
       </c>
       <c r="G23" s="29">
-        <v>34.175471000000002</v>
+        <v>33.443269999999998</v>
       </c>
       <c r="H23" s="30">
-        <v>37.292109000000004</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>36.888306</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
         <v>50</v>
       </c>
@@ -2039,25 +2039,25 @@
         <v>51</v>
       </c>
       <c r="C24" s="40">
-        <v>112.51096200000001</v>
+        <v>112.481452</v>
       </c>
       <c r="D24" s="41">
-        <v>16.985195000000001</v>
+        <v>16.980536000000001</v>
       </c>
       <c r="E24" s="41">
-        <v>-4.3886789999999998</v>
+        <v>-4.3882690000000002</v>
       </c>
       <c r="F24" s="41">
-        <v>-25.107476999999999</v>
+        <v>-25.073719000000001</v>
       </c>
       <c r="G24" s="41">
-        <v>39.543166999999997</v>
+        <v>39.532322000000001</v>
       </c>
       <c r="H24" s="42">
-        <v>14.435689999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>14.458603</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
         <v>52</v>
       </c>
@@ -2083,7 +2083,7 @@
         <v>159.25073599999999</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
         <v>54</v>
       </c>
@@ -2109,7 +2109,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
         <v>56</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v>8.2441320000000005</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
         <v>58</v>
       </c>
@@ -2143,25 +2143,25 @@
         <v>59</v>
       </c>
       <c r="C28" s="21">
-        <v>90.166904000000002</v>
+        <v>89.307203000000001</v>
       </c>
       <c r="D28" s="19">
-        <v>18.769856999999998</v>
+        <v>18.605253000000001</v>
       </c>
       <c r="E28" s="19">
-        <v>0.45278200000000002</v>
+        <v>0.44881100000000002</v>
       </c>
       <c r="F28" s="19">
-        <v>-9.3895429999999998</v>
+        <v>-8.3612669999999998</v>
       </c>
       <c r="G28" s="19">
-        <v>21.689377</v>
+        <v>24.318294999999999</v>
       </c>
       <c r="H28" s="20">
-        <v>12.299834000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>15.957027999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
         <v>60</v>
       </c>
@@ -2187,7 +2187,7 @@
         <v>30.543296000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
         <v>62</v>
       </c>
@@ -2213,7 +2213,7 @@
         <v>52.969118000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
         <v>64</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>22.479773000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
         <v>66</v>
       </c>
@@ -2265,7 +2265,7 @@
         <v>111.334163</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
         <v>68</v>
       </c>
@@ -2291,7 +2291,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
         <v>70</v>
       </c>
@@ -2299,25 +2299,25 @@
         <v>71</v>
       </c>
       <c r="C34" s="32">
-        <v>47.416401999999998</v>
+        <v>46.505806</v>
       </c>
       <c r="D34" s="33">
-        <v>43.551490999999999</v>
+        <v>46.468279000000003</v>
       </c>
       <c r="E34" s="33">
         <v>0</v>
       </c>
       <c r="F34" s="33">
-        <v>9.0321069999999999</v>
+        <v>7.0259150000000004</v>
       </c>
       <c r="G34" s="33">
-        <v>49.090231000000003</v>
+        <v>51.109335000000002</v>
       </c>
       <c r="H34" s="34">
-        <v>58.122337999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+        <v>58.135249000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
         <v>72</v>
       </c>
@@ -2343,7 +2343,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
         <v>74</v>
       </c>
@@ -2357,7 +2357,7 @@
         <v>39.645023999999999</v>
       </c>
       <c r="E36" s="19">
-        <v>-0.68642400000000003</v>
+        <v>-0.68642300000000001</v>
       </c>
       <c r="F36" s="19">
         <v>-6.2739200000000004</v>
@@ -2369,7 +2369,7 @@
         <v>16.03828</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="9" t="s">
         <v>76</v>
       </c>
@@ -2377,49 +2377,49 @@
         <v>77</v>
       </c>
       <c r="C37" s="23">
-        <v>88.158174000000002</v>
+        <v>88.154914000000005</v>
       </c>
       <c r="D37" s="24">
-        <v>23.483011000000001</v>
+        <v>23.489474999999999</v>
       </c>
       <c r="E37" s="24">
-        <v>0.75154399999999999</v>
+        <v>0.75175000000000003</v>
       </c>
       <c r="F37" s="24">
-        <v>-12.392728999999999</v>
+        <v>-12.396140000000001</v>
       </c>
       <c r="G37" s="24">
-        <v>23.681359</v>
+        <v>23.687877</v>
       </c>
       <c r="H37" s="25">
-        <v>11.288631000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>11.291738</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="26"/>
       <c r="B38" s="27" t="s">
         <v>78</v>
       </c>
       <c r="C38" s="28">
-        <v>83.474479000000002</v>
+        <v>83.236378999999999</v>
       </c>
       <c r="D38" s="29">
-        <v>26.020275000000002</v>
+        <v>26.013117000000001</v>
       </c>
       <c r="E38" s="29">
-        <v>-0.102765</v>
+        <v>-0.10378</v>
       </c>
       <c r="F38" s="29">
-        <v>-9.3919890000000006</v>
+        <v>-9.1457149999999992</v>
       </c>
       <c r="G38" s="29">
-        <v>25.111288999999999</v>
+        <v>25.829387000000001</v>
       </c>
       <c r="H38" s="30">
-        <v>15.7193</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+        <v>16.683671</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
         <v>79</v>
       </c>
@@ -2427,25 +2427,25 @@
         <v>80</v>
       </c>
       <c r="C39" s="44">
-        <v>54.327810999999997</v>
+        <v>54.509022999999999</v>
       </c>
       <c r="D39" s="45">
-        <v>30.377191</v>
+        <v>30.384789999999999</v>
       </c>
       <c r="E39" s="45">
-        <v>5.3737079999999997</v>
+        <v>5.1824060000000003</v>
       </c>
       <c r="F39" s="45">
-        <v>9.9212900000000008</v>
+        <v>9.9237800000000007</v>
       </c>
       <c r="G39" s="45">
-        <v>20.684695999999999</v>
+        <v>20.689888</v>
       </c>
       <c r="H39" s="46">
-        <v>30.605986000000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+        <v>30.613668000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
         <v>81</v>
       </c>
@@ -2456,10 +2456,10 @@
         <v>86.953140000000005</v>
       </c>
       <c r="D40" s="19">
-        <v>15.206886000000001</v>
+        <v>18.043990999999998</v>
       </c>
       <c r="E40" s="19">
-        <v>4.6490280000000004</v>
+        <v>1.811922</v>
       </c>
       <c r="F40" s="19">
         <v>-6.8090529999999996</v>
@@ -2471,7 +2471,7 @@
         <v>15.087026</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
         <v>83</v>
       </c>
@@ -2497,7 +2497,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
         <v>85</v>
       </c>
@@ -2523,7 +2523,7 @@
         <v>39.737921</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="9" t="s">
         <v>87</v>
       </c>
@@ -2531,25 +2531,25 @@
         <v>88</v>
       </c>
       <c r="C43" s="21">
-        <v>81.350121999999999</v>
+        <v>81.195134999999993</v>
       </c>
       <c r="D43" s="19">
-        <v>26.722304000000001</v>
+        <v>26.617297000000001</v>
       </c>
       <c r="E43" s="19">
-        <v>3.4563519999999999</v>
+        <v>3.6710440000000002</v>
       </c>
       <c r="F43" s="19">
-        <v>-11.528778000000001</v>
+        <v>-11.483476</v>
       </c>
       <c r="G43" s="19">
-        <v>56.418444999999998</v>
+        <v>56.196747000000002</v>
       </c>
       <c r="H43" s="20">
-        <v>44.889667000000003</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>44.713270999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="9" t="s">
         <v>89</v>
       </c>
@@ -2575,31 +2575,31 @@
         <v>54.195346000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="26"/>
       <c r="B45" s="27" t="s">
         <v>91</v>
       </c>
       <c r="C45" s="28">
-        <v>79.585686999999993</v>
+        <v>79.611521999999994</v>
       </c>
       <c r="D45" s="29">
-        <v>19.970244999999998</v>
+        <v>21.689250999999999</v>
       </c>
       <c r="E45" s="29">
-        <v>4.5376260000000004</v>
+        <v>2.7906390000000001</v>
       </c>
       <c r="F45" s="29">
-        <v>-4.0935589999999999</v>
+        <v>-4.091412</v>
       </c>
       <c r="G45" s="29">
-        <v>28.07987</v>
+        <v>28.066113999999999</v>
       </c>
       <c r="H45" s="30">
-        <v>23.986311000000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+        <v>23.974702000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
         <v>92</v>
       </c>
@@ -2607,13 +2607,13 @@
         <v>93</v>
       </c>
       <c r="C46" s="40">
-        <v>69.353391000000002</v>
+        <v>74.731104999999999</v>
       </c>
       <c r="D46" s="41">
-        <v>36.132967999999998</v>
+        <v>30.73283</v>
       </c>
       <c r="E46" s="41">
-        <v>0.39282600000000001</v>
+        <v>0.41525000000000001</v>
       </c>
       <c r="F46" s="41">
         <v>-5.8791849999999997</v>
@@ -2625,7 +2625,7 @@
         <v>24.511403999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="9" t="s">
         <v>94</v>
       </c>
@@ -2633,25 +2633,25 @@
         <v>95</v>
       </c>
       <c r="C47" s="21">
-        <v>89.729071000000005</v>
+        <v>87.027163000000002</v>
       </c>
       <c r="D47" s="19">
-        <v>14.198681000000001</v>
+        <v>18.146256999999999</v>
       </c>
       <c r="E47" s="19">
-        <v>0.91761400000000004</v>
+        <v>-8.7751999999999997E-2</v>
       </c>
       <c r="F47" s="19">
-        <v>-4.8453670000000004</v>
+        <v>-5.0856680000000001</v>
       </c>
       <c r="G47" s="19">
-        <v>34.58887</v>
+        <v>36.304273000000002</v>
       </c>
       <c r="H47" s="20">
-        <v>29.743504000000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+        <v>31.218605</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="9" t="s">
         <v>96</v>
       </c>
@@ -2659,25 +2659,25 @@
         <v>97</v>
       </c>
       <c r="C48" s="32">
-        <v>94.111326000000005</v>
+        <v>94.109330999999997</v>
       </c>
       <c r="D48" s="33">
-        <v>24.784486999999999</v>
+        <v>24.786082</v>
       </c>
       <c r="E48" s="33">
         <v>0</v>
       </c>
       <c r="F48" s="33">
-        <v>-18.895814000000001</v>
+        <v>-18.895413000000001</v>
       </c>
       <c r="G48" s="33">
-        <v>56.141522999999999</v>
+        <v>56.140332999999998</v>
       </c>
       <c r="H48" s="34">
-        <v>37.245710000000003</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+        <v>37.24492</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="9" t="s">
         <v>98</v>
       </c>
@@ -2703,7 +2703,7 @@
         <v>24.26736</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="9" t="s">
         <v>100</v>
       </c>
@@ -2711,10 +2711,10 @@
         <v>101</v>
       </c>
       <c r="C50" s="21">
-        <v>103.662757</v>
+        <v>101.46840400000001</v>
       </c>
       <c r="D50" s="19">
-        <v>22.662956999999999</v>
+        <v>24.857309999999998</v>
       </c>
       <c r="E50" s="19">
         <v>0</v>
@@ -2729,7 +2729,7 @@
         <v>12.521858</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="9" t="s">
         <v>102</v>
       </c>
@@ -2755,7 +2755,7 @@
         <v>35.858001000000002</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="9" t="s">
         <v>104</v>
       </c>
@@ -2781,7 +2781,7 @@
         <v>45.424053000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="9" t="s">
         <v>106</v>
       </c>
@@ -2789,10 +2789,10 @@
         <v>107</v>
       </c>
       <c r="C53" s="21">
-        <v>99.587791999999993</v>
+        <v>99.587416000000005</v>
       </c>
       <c r="D53" s="19">
-        <v>16.864919</v>
+        <v>16.865295</v>
       </c>
       <c r="E53" s="19">
         <v>1.2055849999999999</v>
@@ -2807,7 +2807,7 @@
         <v>16.651976000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" s="9" t="s">
         <v>108</v>
       </c>
@@ -2833,7 +2833,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" s="9" t="s">
         <v>110</v>
       </c>
@@ -2859,7 +2859,7 @@
         <v>31.139016999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" s="9" t="s">
         <v>112</v>
       </c>
@@ -2867,7 +2867,7 @@
         <v>113</v>
       </c>
       <c r="C56" s="21">
-        <v>90.950637999999998</v>
+        <v>90.950525999999996</v>
       </c>
       <c r="D56" s="19">
         <v>27.167867000000001</v>
@@ -2876,16 +2876,16 @@
         <v>0.15590499999999999</v>
       </c>
       <c r="F56" s="19">
-        <v>-18.274411000000001</v>
+        <v>-18.274298999999999</v>
       </c>
       <c r="G56" s="19">
         <v>29.971958000000001</v>
       </c>
       <c r="H56" s="20">
-        <v>11.697547</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+        <v>11.697660000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" s="9" t="s">
         <v>114</v>
       </c>
@@ -2893,25 +2893,25 @@
         <v>115</v>
       </c>
       <c r="C57" s="21">
-        <v>68.419169999999994</v>
+        <v>83.136729000000003</v>
       </c>
       <c r="D57" s="19">
-        <v>32.532421999999997</v>
+        <v>17.500509000000001</v>
       </c>
       <c r="E57" s="19">
-        <v>0.73420399999999997</v>
+        <v>0.595275</v>
       </c>
       <c r="F57" s="19">
-        <v>-1.6857960000000001</v>
+        <v>-1.2325120000000001</v>
       </c>
       <c r="G57" s="19">
-        <v>16.321455</v>
+        <v>11.933</v>
       </c>
       <c r="H57" s="20">
-        <v>14.635659</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+        <v>10.700488</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" s="9" t="s">
         <v>116</v>
       </c>
@@ -2922,22 +2922,22 @@
         <v>79.154375000000002</v>
       </c>
       <c r="D58" s="19">
-        <v>36.636277999999997</v>
+        <v>35.030436999999999</v>
       </c>
       <c r="E58" s="19">
-        <v>10.498632000000001</v>
+        <v>12.104856</v>
       </c>
       <c r="F58" s="19">
-        <v>-26.289285</v>
+        <v>-26.289669</v>
       </c>
       <c r="G58" s="19">
-        <v>53.078119000000001</v>
+        <v>53.078404999999997</v>
       </c>
       <c r="H58" s="20">
-        <v>26.788834000000001</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+        <v>26.788737000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" s="9" t="s">
         <v>118</v>
       </c>
@@ -2963,7 +2963,7 @@
         <v>16.889351999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="9" t="s">
         <v>120</v>
       </c>
@@ -2971,937 +2971,937 @@
         <v>121</v>
       </c>
       <c r="C60" s="23">
-        <v>86.073643000000004</v>
+        <v>86.276173</v>
       </c>
       <c r="D60" s="24">
-        <v>23.547160000000002</v>
+        <v>26.000150000000001</v>
       </c>
       <c r="E60" s="24">
         <v>0</v>
       </c>
       <c r="F60" s="24">
-        <v>-9.6208039999999997</v>
+        <v>-12.276323</v>
       </c>
       <c r="G60" s="24">
-        <v>31.035368999999999</v>
+        <v>38.901007999999997</v>
       </c>
       <c r="H60" s="25">
-        <v>21.414566000000001</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>26.624686000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="26"/>
       <c r="B61" s="27" t="s">
         <v>122</v>
       </c>
       <c r="C61" s="28">
-        <v>74.143876000000006</v>
+        <v>83.101016000000001</v>
       </c>
       <c r="D61" s="29">
-        <v>28.240492</v>
+        <v>18.796755000000001</v>
       </c>
       <c r="E61" s="29">
-        <v>1.318695</v>
+        <v>1.136971</v>
       </c>
       <c r="F61" s="29">
-        <v>-3.7030639999999999</v>
+        <v>-3.0347409999999999</v>
       </c>
       <c r="G61" s="29">
-        <v>23.968108000000001</v>
+        <v>19.613398</v>
       </c>
       <c r="H61" s="30">
-        <v>20.265044</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>16.578657</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="48"/>
       <c r="B62" s="49" t="s">
         <v>123</v>
       </c>
       <c r="C62" s="50">
-        <v>77.898869000000005</v>
+        <v>80.245609000000002</v>
       </c>
       <c r="D62" s="51">
-        <v>22.929966</v>
+        <v>21.022608000000002</v>
       </c>
       <c r="E62" s="51">
-        <v>2.2839049999999999</v>
+        <v>1.5880609999999999</v>
       </c>
       <c r="F62" s="51">
-        <v>-3.1127410000000002</v>
+        <v>-2.8562780000000001</v>
       </c>
       <c r="G62" s="51">
-        <v>27.682051000000001</v>
+        <v>26.194913</v>
       </c>
       <c r="H62" s="52">
-        <v>24.569310000000002</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>23.338635</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="48"/>
       <c r="B63" s="49" t="s">
         <v>124</v>
       </c>
       <c r="C63" s="50">
-        <v>70.717183000000006</v>
+        <v>70.569918999999999</v>
       </c>
       <c r="D63" s="51">
-        <v>27.065564999999999</v>
+        <v>27.078959999999999</v>
       </c>
       <c r="E63" s="51">
-        <v>1.6351279999999999</v>
+        <v>1.7404459999999999</v>
       </c>
       <c r="F63" s="51">
-        <v>0.58212399999999997</v>
+        <v>0.61067400000000005</v>
       </c>
       <c r="G63" s="51">
-        <v>30.053965000000002</v>
+        <v>29.976718999999999</v>
       </c>
       <c r="H63" s="52">
-        <v>30.608872999999999</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+        <v>30.560525999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" s="53"/>
       <c r="B64" s="54" t="s">
         <v>125</v>
       </c>
       <c r="C64" s="55">
-        <v>81.705747000000002</v>
+        <v>81.698487999999998</v>
       </c>
       <c r="D64" s="56">
-        <v>20.026733</v>
+        <v>19.939589000000002</v>
       </c>
       <c r="E64" s="56">
-        <v>0.318689</v>
+        <v>0.38986100000000001</v>
       </c>
       <c r="F64" s="56">
-        <v>-2.0511689999999998</v>
+        <v>-2.0279389999999999</v>
       </c>
       <c r="G64" s="56">
-        <v>29.684425000000001</v>
+        <v>29.667632000000001</v>
       </c>
       <c r="H64" s="57">
-        <v>27.633255999999999</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+        <v>27.639693000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" s="53"/>
       <c r="B65" s="58" t="s">
         <v>126</v>
       </c>
       <c r="C65" s="59">
-        <v>62.736727999999999</v>
+        <v>62.650077000000003</v>
       </c>
       <c r="D65" s="60">
-        <v>35.132542999999998</v>
+        <v>35.172673000000003</v>
       </c>
       <c r="E65" s="60">
-        <v>1.9410780000000001</v>
+        <v>1.9778359999999999</v>
       </c>
       <c r="F65" s="60">
-        <v>0.18965199999999999</v>
+        <v>0.19941400000000001</v>
       </c>
       <c r="G65" s="60">
-        <v>23.603743999999999</v>
+        <v>23.576049000000001</v>
       </c>
       <c r="H65" s="61">
-        <v>23.711656000000001</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>23.694040999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="53"/>
       <c r="B66" s="62" t="s">
         <v>127</v>
       </c>
       <c r="C66" s="63">
-        <v>71.085015999999996</v>
+        <v>71.092538000000005</v>
       </c>
       <c r="D66" s="64">
-        <v>26.853748</v>
+        <v>26.751833999999999</v>
       </c>
       <c r="E66" s="64">
-        <v>1.6683570000000001</v>
+        <v>1.732216</v>
       </c>
       <c r="F66" s="64">
-        <v>0.39287899999999998</v>
+        <v>0.42341200000000001</v>
       </c>
       <c r="G66" s="64">
-        <v>29.931474999999999</v>
+        <v>29.770772000000001</v>
       </c>
       <c r="H66" s="65">
-        <v>30.296980000000001</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+        <v>30.167242000000002</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" s="53"/>
       <c r="B67" s="58" t="s">
         <v>128</v>
       </c>
       <c r="C67" s="59">
-        <v>87.822081999999995</v>
+        <v>87.696675999999997</v>
       </c>
       <c r="D67" s="60">
-        <v>17.363810000000001</v>
+        <v>18.948854999999998</v>
       </c>
       <c r="E67" s="60">
-        <v>2.7140529999999998</v>
+        <v>1.091459</v>
       </c>
       <c r="F67" s="60">
-        <v>-7.8999459999999999</v>
+        <v>-7.7369899999999996</v>
       </c>
       <c r="G67" s="60">
-        <v>26.863686000000001</v>
+        <v>26.965236000000001</v>
       </c>
       <c r="H67" s="61">
-        <v>18.963740000000001</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+        <v>19.228245999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" s="53"/>
       <c r="B68" s="58" t="s">
         <v>129</v>
       </c>
       <c r="C68" s="59">
-        <v>80.824703999999997</v>
+        <v>84.739393000000007</v>
       </c>
       <c r="D68" s="60">
-        <v>22.146450000000002</v>
+        <v>18.954284000000001</v>
       </c>
       <c r="E68" s="60">
-        <v>2.9613839999999998</v>
+        <v>1.658841</v>
       </c>
       <c r="F68" s="60">
-        <v>-5.9325380000000001</v>
+        <v>-5.3525179999999999</v>
       </c>
       <c r="G68" s="60">
-        <v>27.502846999999999</v>
+        <v>24.910972000000001</v>
       </c>
       <c r="H68" s="61">
-        <v>21.570309000000002</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+        <v>19.558454000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" s="53"/>
       <c r="B69" s="58" t="s">
         <v>130</v>
       </c>
       <c r="C69" s="59">
-        <v>84.097352000000001</v>
+        <v>83.843433000000005</v>
       </c>
       <c r="D69" s="60">
-        <v>24.300426999999999</v>
+        <v>24.184994</v>
       </c>
       <c r="E69" s="60">
-        <v>0.17643600000000001</v>
+        <v>0.17383899999999999</v>
       </c>
       <c r="F69" s="60">
-        <v>-8.5742150000000006</v>
+        <v>-8.2022659999999998</v>
       </c>
       <c r="G69" s="60">
-        <v>28.290044999999999</v>
+        <v>29.021858000000002</v>
       </c>
       <c r="H69" s="61">
-        <v>19.715831000000001</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+        <v>20.819592</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" s="53"/>
       <c r="B70" s="58" t="s">
         <v>131</v>
       </c>
       <c r="C70" s="59">
-        <v>67.301124999999999</v>
+        <v>67.395635999999996</v>
       </c>
       <c r="D70" s="60">
-        <v>24.890065</v>
+        <v>24.678163000000001</v>
       </c>
       <c r="E70" s="60">
-        <v>0.89022299999999999</v>
+        <v>0.85572700000000002</v>
       </c>
       <c r="F70" s="60">
-        <v>6.9185860000000003</v>
+        <v>7.0704729999999998</v>
       </c>
       <c r="G70" s="60">
-        <v>28.818745</v>
+        <v>28.453806</v>
       </c>
       <c r="H70" s="61">
-        <v>35.737330999999998</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+        <v>35.524279</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" s="53"/>
       <c r="B71" s="58" t="s">
         <v>132</v>
       </c>
       <c r="C71" s="59">
-        <v>74.143876000000006</v>
+        <v>83.101016000000001</v>
       </c>
       <c r="D71" s="60">
-        <v>28.240492</v>
+        <v>18.796755000000001</v>
       </c>
       <c r="E71" s="60">
-        <v>1.318695</v>
+        <v>1.136971</v>
       </c>
       <c r="F71" s="60">
-        <v>-3.7030639999999999</v>
+        <v>-3.0347409999999999</v>
       </c>
       <c r="G71" s="60">
-        <v>23.968108000000001</v>
+        <v>19.613398</v>
       </c>
       <c r="H71" s="61">
-        <v>20.265044</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+        <v>16.578657</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" s="53"/>
       <c r="B72" s="58" t="s">
         <v>133</v>
       </c>
       <c r="C72" s="59">
-        <v>86.818691999999999</v>
+        <v>86.478289000000004</v>
       </c>
       <c r="D72" s="60">
-        <v>22.895326000000001</v>
+        <v>22.885128999999999</v>
       </c>
       <c r="E72" s="60">
-        <v>-5.2333999999999999E-2</v>
+        <v>-5.3786E-2</v>
       </c>
       <c r="F72" s="60">
-        <v>-9.6616839999999993</v>
+        <v>-9.3096320000000006</v>
       </c>
       <c r="G72" s="60">
-        <v>22.166402999999999</v>
+        <v>23.193497000000001</v>
       </c>
       <c r="H72" s="61">
-        <v>12.504719</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13.883865</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" s="53"/>
       <c r="B73" s="58" t="s">
         <v>134</v>
       </c>
       <c r="C73" s="59">
-        <v>76.685061000000005</v>
+        <v>76.448132000000001</v>
       </c>
       <c r="D73" s="60">
-        <v>22.052880999999999</v>
+        <v>21.968219999999999</v>
       </c>
       <c r="E73" s="60">
-        <v>0.71827399999999997</v>
+        <v>0.87125300000000006</v>
       </c>
       <c r="F73" s="60">
-        <v>0.54378400000000005</v>
+        <v>0.712395</v>
       </c>
       <c r="G73" s="60">
-        <v>33.352668000000001</v>
+        <v>33.049719000000003</v>
       </c>
       <c r="H73" s="61">
-        <v>33.896451999999996</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+        <v>33.762112999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" s="53"/>
       <c r="B74" s="58" t="s">
         <v>135</v>
       </c>
       <c r="C74" s="59">
-        <v>68.109342999999996</v>
+        <v>68.182114999999996</v>
       </c>
       <c r="D74" s="60">
-        <v>27.390170999999999</v>
+        <v>27.364180000000001</v>
       </c>
       <c r="E74" s="60">
-        <v>4.364096</v>
+        <v>4.3143019999999996</v>
       </c>
       <c r="F74" s="60">
-        <v>0.13639000000000001</v>
+        <v>0.139403</v>
       </c>
       <c r="G74" s="60">
-        <v>37.712414000000003</v>
+        <v>37.671602</v>
       </c>
       <c r="H74" s="61">
-        <v>37.848804000000001</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>37.811005999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="53"/>
       <c r="B75" s="58" t="s">
         <v>136</v>
       </c>
       <c r="C75" s="66">
-        <v>57.820543000000001</v>
+        <v>57.982757999999997</v>
       </c>
       <c r="D75" s="67">
-        <v>34.501676000000003</v>
+        <v>34.335451999999997</v>
       </c>
       <c r="E75" s="67">
-        <v>1.5630999999999999E-2</v>
+        <v>1.5633999999999999E-2</v>
       </c>
       <c r="F75" s="67">
-        <v>7.6621499999999996</v>
+        <v>7.666156</v>
       </c>
       <c r="G75" s="67">
-        <v>29.118248999999999</v>
+        <v>29.114174999999999</v>
       </c>
       <c r="H75" s="68">
-        <v>36.780399000000003</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+        <v>36.780330999999997</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" s="53"/>
       <c r="B76" s="69" t="s">
         <v>137</v>
       </c>
       <c r="C76" s="70">
-        <v>67.353847999999999</v>
+        <v>67.342352000000005</v>
       </c>
       <c r="D76" s="71">
-        <v>26.813673999999999</v>
+        <v>26.799181999999998</v>
       </c>
       <c r="E76" s="71">
-        <v>2.0911729999999999</v>
+        <v>2.0934849999999998</v>
       </c>
       <c r="F76" s="71">
-        <v>3.7413050000000001</v>
+        <v>3.7649819999999998</v>
       </c>
       <c r="G76" s="71">
-        <v>51.026077999999998</v>
+        <v>51.183038000000003</v>
       </c>
       <c r="H76" s="72">
-        <v>54.772978999999999</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+        <v>54.957223999999997</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" s="53"/>
       <c r="B77" s="58" t="s">
         <v>138</v>
       </c>
       <c r="C77" s="59">
-        <v>81.191132999999994</v>
+        <v>81.209782000000004</v>
       </c>
       <c r="D77" s="60">
-        <v>19.095790999999998</v>
+        <v>18.966546000000001</v>
       </c>
       <c r="E77" s="60">
-        <v>0.25987100000000002</v>
+        <v>0.35263800000000001</v>
       </c>
       <c r="F77" s="60">
-        <v>-0.546794</v>
+        <v>-0.52896500000000002</v>
       </c>
       <c r="G77" s="60">
-        <v>23.060693000000001</v>
+        <v>23.068318000000001</v>
       </c>
       <c r="H77" s="61">
-        <v>22.513898999999999</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+        <v>22.539352999999998</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" s="53"/>
       <c r="B78" s="58" t="s">
         <v>139</v>
       </c>
       <c r="C78" s="59">
-        <v>74.438320000000004</v>
+        <v>74.433231000000006</v>
       </c>
       <c r="D78" s="60">
-        <v>21.941838000000001</v>
+        <v>21.915814000000001</v>
       </c>
       <c r="E78" s="60">
-        <v>2.2726199999999999</v>
+        <v>2.3274879999999998</v>
       </c>
       <c r="F78" s="60">
-        <v>1.3472219999999999</v>
+        <v>1.3234680000000001</v>
       </c>
       <c r="G78" s="60">
-        <v>53.415604999999999</v>
+        <v>53.462490000000003</v>
       </c>
       <c r="H78" s="61">
-        <v>54.762839</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>54.785967999999997</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="53"/>
       <c r="B79" s="62" t="s">
         <v>140</v>
       </c>
       <c r="C79" s="63">
-        <v>77.000928999999999</v>
+        <v>76.779071000000002</v>
       </c>
       <c r="D79" s="64">
-        <v>22.598721999999999</v>
+        <v>22.638468</v>
       </c>
       <c r="E79" s="64">
-        <v>1.422132</v>
+        <v>1.5711809999999999</v>
       </c>
       <c r="F79" s="64">
-        <v>-1.021784</v>
+        <v>-0.98872000000000004</v>
       </c>
       <c r="G79" s="64">
-        <v>34.275157</v>
+        <v>34.243687999999999</v>
       </c>
       <c r="H79" s="65">
-        <v>33.253377999999998</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+        <v>33.254972000000002</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" s="53"/>
       <c r="B80" s="69" t="s">
         <v>141</v>
       </c>
       <c r="C80" s="70">
-        <v>53.821716000000002</v>
+        <v>53.847613000000003</v>
       </c>
       <c r="D80" s="71">
-        <v>30.595924</v>
+        <v>30.568456000000001</v>
       </c>
       <c r="E80" s="71">
-        <v>4.0532019999999997</v>
+        <v>3.9254169999999999</v>
       </c>
       <c r="F80" s="71">
-        <v>11.529158000000001</v>
+        <v>11.658514</v>
       </c>
       <c r="G80" s="71">
-        <v>23.211853999999999</v>
+        <v>23.148710000000001</v>
       </c>
       <c r="H80" s="72">
-        <v>34.741011999999998</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+        <v>34.807223999999998</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" s="53"/>
       <c r="B81" s="58" t="s">
         <v>142</v>
       </c>
       <c r="C81" s="59">
-        <v>62.546554</v>
+        <v>62.255341000000001</v>
       </c>
       <c r="D81" s="60">
-        <v>21.727478999999999</v>
+        <v>21.948622</v>
       </c>
       <c r="E81" s="60">
-        <v>3.8887779999999998</v>
+        <v>4.2040769999999998</v>
       </c>
       <c r="F81" s="60">
-        <v>11.837189</v>
+        <v>11.59196</v>
       </c>
       <c r="G81" s="60">
-        <v>25.239070999999999</v>
+        <v>24.562826000000001</v>
       </c>
       <c r="H81" s="61">
-        <v>37.076259999999998</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+        <v>36.154786000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" s="53"/>
       <c r="B82" s="58" t="s">
         <v>143</v>
       </c>
       <c r="C82" s="59">
-        <v>82.074162999999999</v>
+        <v>84.515769000000006</v>
       </c>
       <c r="D82" s="60">
-        <v>21.600588999999999</v>
+        <v>19.478463999999999</v>
       </c>
       <c r="E82" s="60">
-        <v>1.9770859999999999</v>
+        <v>1.2099679999999999</v>
       </c>
       <c r="F82" s="60">
-        <v>-5.6518370000000004</v>
+        <v>-5.2042010000000003</v>
       </c>
       <c r="G82" s="60">
-        <v>28.457242000000001</v>
+        <v>26.687669</v>
       </c>
       <c r="H82" s="61">
-        <v>22.805403999999999</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>21.483467999999998</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="53"/>
       <c r="B83" s="62" t="s">
         <v>144</v>
       </c>
       <c r="C83" s="63">
-        <v>71.419728000000006</v>
+        <v>71.309742</v>
       </c>
       <c r="D83" s="64">
-        <v>27.524557000000001</v>
+        <v>27.535451999999999</v>
       </c>
       <c r="E83" s="64">
-        <v>1.4413499999999999</v>
+        <v>1.5212349999999999</v>
       </c>
       <c r="F83" s="64">
-        <v>-0.38563399999999998</v>
+        <v>-0.366429</v>
       </c>
       <c r="G83" s="64">
-        <v>30.471892</v>
+        <v>30.463000999999998</v>
       </c>
       <c r="H83" s="65">
-        <v>30.047511</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+        <v>30.058043000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" s="53"/>
       <c r="B84" s="69" t="s">
         <v>145</v>
       </c>
       <c r="C84" s="70">
-        <v>89.550860999999998</v>
+        <v>89.283164999999997</v>
       </c>
       <c r="D84" s="71">
-        <v>20.750250999999999</v>
+        <v>21.093368000000002</v>
       </c>
       <c r="E84" s="71">
-        <v>1.0993470000000001</v>
+        <v>0.98482000000000003</v>
       </c>
       <c r="F84" s="71">
-        <v>-11.400459</v>
+        <v>-11.361352999999999</v>
       </c>
       <c r="G84" s="71">
-        <v>39.375411999999997</v>
+        <v>39.454461000000002</v>
       </c>
       <c r="H84" s="72">
-        <v>27.974952999999999</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28.093108000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" s="53"/>
       <c r="B85" s="73" t="s">
         <v>146</v>
       </c>
       <c r="C85" s="59">
-        <v>132.35325800000001</v>
+        <v>132.354195</v>
       </c>
       <c r="D85" s="60">
-        <v>11.723898</v>
+        <v>11.723539000000001</v>
       </c>
       <c r="E85" s="60">
         <v>0</v>
       </c>
       <c r="F85" s="60">
-        <v>-44.077156000000002</v>
+        <v>-44.077734</v>
       </c>
       <c r="G85" s="60">
-        <v>58.596122000000001</v>
+        <v>58.596420000000002</v>
       </c>
       <c r="H85" s="61">
-        <v>14.518966000000001</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+        <v>14.518685</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" s="53"/>
       <c r="B86" s="58" t="s">
         <v>147</v>
       </c>
       <c r="C86" s="59">
-        <v>78.448723999999999</v>
+        <v>81.964843000000002</v>
       </c>
       <c r="D86" s="60">
-        <v>23.457533999999999</v>
+        <v>20.538428</v>
       </c>
       <c r="E86" s="60">
-        <v>2.4155389999999999</v>
+        <v>1.3802030000000001</v>
       </c>
       <c r="F86" s="60">
-        <v>-4.3217970000000001</v>
+        <v>-3.8834740000000001</v>
       </c>
       <c r="G86" s="60">
-        <v>26.517388</v>
+        <v>24.429205</v>
       </c>
       <c r="H86" s="61">
-        <v>22.195591</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+        <v>20.545731</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" s="53"/>
       <c r="B87" s="58" t="s">
         <v>148</v>
       </c>
       <c r="C87" s="59">
-        <v>74.607021000000003</v>
+        <v>74.629458</v>
       </c>
       <c r="D87" s="60">
-        <v>28.770408</v>
+        <v>28.773993999999998</v>
       </c>
       <c r="E87" s="60">
-        <v>2.092498</v>
+        <v>2.0675919999999999</v>
       </c>
       <c r="F87" s="60">
-        <v>-5.4699270000000002</v>
+        <v>-5.4710429999999999</v>
       </c>
       <c r="G87" s="60">
-        <v>28.109528999999998</v>
+        <v>28.140018999999999</v>
       </c>
       <c r="H87" s="61">
-        <v>21.967641</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+        <v>21.995638</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" s="53"/>
       <c r="B88" s="58" t="s">
         <v>149</v>
       </c>
       <c r="C88" s="59">
-        <v>69.703879000000001</v>
+        <v>69.444243</v>
       </c>
       <c r="D88" s="60">
-        <v>21.743006000000001</v>
+        <v>21.791975000000001</v>
       </c>
       <c r="E88" s="60">
-        <v>2.846962</v>
+        <v>2.8886539999999998</v>
       </c>
       <c r="F88" s="60">
-        <v>5.7061539999999997</v>
+        <v>5.8751280000000001</v>
       </c>
       <c r="G88" s="60">
-        <v>27.918783999999999</v>
+        <v>27.799724999999999</v>
       </c>
       <c r="H88" s="61">
-        <v>33.624938</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+        <v>33.674852000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" s="53"/>
       <c r="B89" s="58" t="s">
         <v>150</v>
       </c>
       <c r="C89" s="59">
-        <v>63.158011999999999</v>
+        <v>62.856394999999999</v>
       </c>
       <c r="D89" s="60">
-        <v>33.430593000000002</v>
+        <v>33.527448999999997</v>
       </c>
       <c r="E89" s="60">
-        <v>1.752076</v>
+        <v>1.9358040000000001</v>
       </c>
       <c r="F89" s="60">
-        <v>1.659319</v>
+        <v>1.6803520000000001</v>
       </c>
       <c r="G89" s="60">
-        <v>24.959133000000001</v>
+        <v>24.889614000000002</v>
       </c>
       <c r="H89" s="61">
-        <v>26.618452000000001</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>26.569966000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="53"/>
       <c r="B90" s="62" t="s">
         <v>151</v>
       </c>
       <c r="C90" s="63">
-        <v>74.845855999999998</v>
+        <v>74.761401000000006</v>
       </c>
       <c r="D90" s="64">
-        <v>22.311444999999999</v>
+        <v>22.279959999999999</v>
       </c>
       <c r="E90" s="64">
-        <v>1.444839</v>
+        <v>1.5290459999999999</v>
       </c>
       <c r="F90" s="64">
-        <v>1.3978600000000001</v>
+        <v>1.4295929999999999</v>
       </c>
       <c r="G90" s="64">
-        <v>34.028908000000001</v>
+        <v>33.911951999999999</v>
       </c>
       <c r="H90" s="65">
-        <v>35.426772</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+        <v>35.341548000000003</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" s="53"/>
       <c r="B91" s="69" t="s">
         <v>152</v>
       </c>
       <c r="C91" s="70">
-        <v>77.301479</v>
+        <v>77.413135999999994</v>
       </c>
       <c r="D91" s="71">
-        <v>27.117809000000001</v>
+        <v>26.993051999999999</v>
       </c>
       <c r="E91" s="71">
-        <v>1.005441</v>
+        <v>1.0246219999999999</v>
       </c>
       <c r="F91" s="71">
-        <v>-5.4247290000000001</v>
+        <v>-5.4308110000000003</v>
       </c>
       <c r="G91" s="71">
-        <v>31.300194000000001</v>
+        <v>31.359933000000002</v>
       </c>
       <c r="H91" s="72">
-        <v>25.875464000000001</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+        <v>25.929122</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" s="53"/>
       <c r="B92" s="58" t="s">
         <v>153</v>
       </c>
       <c r="C92" s="59">
-        <v>80.671457000000004</v>
+        <v>80.823576000000003</v>
       </c>
       <c r="D92" s="60">
-        <v>30.310013999999999</v>
+        <v>30.306858999999999</v>
       </c>
       <c r="E92" s="60">
-        <v>0.78018799999999999</v>
+        <v>0.77829599999999999</v>
       </c>
       <c r="F92" s="60">
-        <v>-11.761659</v>
+        <v>-11.908731</v>
       </c>
       <c r="G92" s="60">
-        <v>28.395101</v>
+        <v>28.679901999999998</v>
       </c>
       <c r="H92" s="61">
-        <v>16.633441999999999</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+        <v>16.771170999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" s="53"/>
       <c r="B93" s="58" t="s">
         <v>154</v>
       </c>
       <c r="C93" s="59">
-        <v>93.731505999999996</v>
+        <v>93.727542999999997</v>
       </c>
       <c r="D93" s="60">
-        <v>21.409058999999999</v>
+        <v>21.409811000000001</v>
       </c>
       <c r="E93" s="60">
-        <v>0.33355400000000002</v>
+        <v>0.33400200000000002</v>
       </c>
       <c r="F93" s="60">
-        <v>-15.474119999999999</v>
+        <v>-15.471356</v>
       </c>
       <c r="G93" s="60">
-        <v>64.103933999999995</v>
+        <v>64.117457000000002</v>
       </c>
       <c r="H93" s="61">
-        <v>48.629815000000001</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+        <v>48.646101000000002</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94" s="53"/>
       <c r="B94" s="58" t="s">
         <v>155</v>
       </c>
       <c r="C94" s="59">
-        <v>53.508035</v>
+        <v>53.552799999999998</v>
       </c>
       <c r="D94" s="60">
-        <v>22.753523000000001</v>
+        <v>22.790277</v>
       </c>
       <c r="E94" s="60">
-        <v>1.158264</v>
+        <v>1.1193759999999999</v>
       </c>
       <c r="F94" s="60">
-        <v>22.580178</v>
+        <v>22.537547</v>
       </c>
       <c r="G94" s="60">
-        <v>107.992604</v>
+        <v>107.671198</v>
       </c>
       <c r="H94" s="61">
-        <v>130.57278199999999</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+        <v>130.20874499999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" s="53"/>
       <c r="B95" s="58" t="s">
         <v>156</v>
       </c>
       <c r="C95" s="59">
-        <v>84.279094999999998</v>
+        <v>83.800331999999997</v>
       </c>
       <c r="D95" s="60">
-        <v>23.092624000000001</v>
+        <v>23.254687000000001</v>
       </c>
       <c r="E95" s="60">
-        <v>1.184339</v>
+        <v>1.2881089999999999</v>
       </c>
       <c r="F95" s="60">
-        <v>-8.5560589999999994</v>
+        <v>-8.3431270000000008</v>
       </c>
       <c r="G95" s="60">
-        <v>28.218715</v>
+        <v>28.031848</v>
       </c>
       <c r="H95" s="61">
-        <v>19.662656999999999</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>19.68872</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="53"/>
       <c r="B96" s="62" t="s">
         <v>157</v>
       </c>
       <c r="C96" s="63">
-        <v>75.464551999999998</v>
+        <v>75.439070000000001</v>
       </c>
       <c r="D96" s="64">
-        <v>22.530092</v>
+        <v>22.523551999999999</v>
       </c>
       <c r="E96" s="64">
-        <v>3.0842960000000001</v>
+        <v>3.0842100000000001</v>
       </c>
       <c r="F96" s="64">
-        <v>-1.07894</v>
+        <v>-1.046832</v>
       </c>
       <c r="G96" s="64">
-        <v>37.560927</v>
+        <v>37.545800999999997</v>
       </c>
       <c r="H96" s="65">
-        <v>36.481985999999999</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+        <v>36.498969000000002</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" s="53"/>
       <c r="B97" s="69" t="s">
         <v>158</v>
       </c>
       <c r="C97" s="70">
-        <v>74.779135999999994</v>
+        <v>79.894660000000002</v>
       </c>
       <c r="D97" s="71">
-        <v>27.411359999999998</v>
+        <v>21.889728999999999</v>
       </c>
       <c r="E97" s="71">
-        <v>0.82458699999999996</v>
+        <v>0.759606</v>
       </c>
       <c r="F97" s="71">
-        <v>-3.0150830000000002</v>
+        <v>-2.5439959999999999</v>
       </c>
       <c r="G97" s="71">
-        <v>24.678049999999999</v>
+        <v>22.056350999999999</v>
       </c>
       <c r="H97" s="72">
-        <v>21.662967999999999</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>19.512354999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="53"/>
       <c r="B98" s="62" t="s">
         <v>159</v>
       </c>
       <c r="C98" s="63">
-        <v>79.852588999999995</v>
+        <v>78.654452000000006</v>
       </c>
       <c r="D98" s="64">
-        <v>22.771578000000002</v>
+        <v>23.297478999999999</v>
       </c>
       <c r="E98" s="64">
-        <v>4.6316810000000004</v>
+        <v>5.1132989999999996</v>
       </c>
       <c r="F98" s="64">
-        <v>-7.2558480000000003</v>
+        <v>-7.0652299999999997</v>
       </c>
       <c r="G98" s="64">
-        <v>25.660692000000001</v>
+        <v>25.33445</v>
       </c>
       <c r="H98" s="65">
-        <v>18.404844000000001</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+        <v>18.269220000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" s="74"/>
       <c r="B99" s="75"/>
       <c r="C99" s="67"/>
@@ -3911,7 +3911,7 @@
       <c r="G99" s="67"/>
       <c r="H99" s="67"/>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>160</v>
       </c>
@@ -3922,7 +3922,7 @@
       <c r="G100" s="76"/>
       <c r="H100" s="76"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>161</v>
       </c>
@@ -3933,7 +3933,7 @@
       <c r="G101" s="76"/>
       <c r="H101" s="76"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>162</v>
       </c>
@@ -3944,7 +3944,7 @@
       <c r="G102" s="76"/>
       <c r="H102" s="76"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>163</v>
       </c>
@@ -3955,7 +3955,7 @@
       <c r="G103" s="76"/>
       <c r="H103" s="76"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>164</v>
       </c>
@@ -3966,7 +3966,7 @@
       <c r="G104" s="76"/>
       <c r="H104" s="76"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C105" s="76"/>
       <c r="D105" s="76"/>
       <c r="E105" s="76"/>
@@ -3974,7 +3974,7 @@
       <c r="G105" s="76"/>
       <c r="H105" s="76"/>
     </row>
-    <row r="106" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B106" s="77"/>
       <c r="C106" s="76"/>
       <c r="D106" s="76"/>
@@ -3983,7 +3983,7 @@
       <c r="G106" s="76"/>
       <c r="H106" s="76"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B107" s="78" t="s">
         <v>165</v>
       </c>
@@ -3994,7 +3994,7 @@
       <c r="G107" s="76"/>
       <c r="H107" s="76"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B108" s="2"/>
       <c r="C108" s="76"/>
       <c r="D108" s="76"/>
@@ -4003,7 +4003,7 @@
       <c r="G108" s="76"/>
       <c r="H108" s="76"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B109" s="81" t="s">
         <v>167</v>
       </c>
@@ -4014,7 +4014,7 @@
       <c r="G109" s="76"/>
       <c r="H109" s="76"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B110" s="81" t="s">
         <v>168</v>
       </c>
@@ -4025,7 +4025,7 @@
       <c r="G110" s="76"/>
       <c r="H110" s="76"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B111" s="81" t="s">
         <v>169</v>
       </c>
@@ -4036,7 +4036,7 @@
       <c r="G111" s="76"/>
       <c r="H111" s="76"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
         <v>166</v>
       </c>
@@ -4047,7 +4047,7 @@
       <c r="G112" s="76"/>
       <c r="H112" s="76"/>
     </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B113" s="79"/>
       <c r="C113" s="76"/>
       <c r="D113" s="76"/>
@@ -4058,12 +4058,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B113" r:id="rId1" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{30B72274-05A5-470E-BF82-7D6E37834DF4}"/>
-    <hyperlink ref="B109" r:id="rId2" xr:uid="{BDAF80FB-7A9A-4765-84D5-6050E30DF0F6}"/>
-    <hyperlink ref="B110" r:id="rId3" xr:uid="{D1409AB6-16D0-4269-ACC1-E16BDF37C5EA}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{3239440E-B824-4A89-9683-5E287A319723}"/>
-    <hyperlink ref="B112" r:id="rId5" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{DFDB912F-4788-49A0-8BEB-4208CC3ABFD4}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{3AA3C1C5-3BFA-489F-AE23-937036706F6D}"/>
+    <hyperlink ref="B113" r:id="rId1" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{CFE366CA-265D-40A7-9E60-AC3CE0D65197}"/>
+    <hyperlink ref="B109" r:id="rId2" xr:uid="{EEE215F2-3331-48C1-BDD4-E7658F5D682B}"/>
+    <hyperlink ref="B110" r:id="rId3" xr:uid="{057EB099-2D1B-421D-A273-7448E3F9A719}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{253755BF-E268-4442-A3B3-B84EEF91165F}"/>
+    <hyperlink ref="B112" r:id="rId5" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{C96082F2-F380-4EEB-A834-4424629F3382}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{B9270C94-CFA3-432B-907B-99A0B4AF49D1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="95" fitToHeight="0" orientation="portrait" r:id="rId7"/>

--- a/AfDD_2025_Annex_Table_Tab09.xlsx
+++ b/AfDD_2025_Annex_Table_Tab09.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E410A5B-CC30-41F8-9EFE-520DDCE65625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{27DA10E0-F672-41AF-9BE7-92DA72D278FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-6075" windowWidth="29040" windowHeight="15720" xr2:uid="{26F629ED-0585-48C6-AAA2-B4F950E034B2}"/>
+    <workbookView xWindow="28680" yWindow="-6075" windowWidth="29040" windowHeight="15720" xr2:uid="{1C243305-D675-43FA-9C7E-D5FF804BD6FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab09" sheetId="1" r:id="rId1"/>
@@ -528,7 +528,7 @@
     <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
   </si>
   <si>
-    <t>Regional Economic Communities: CEN-SAD = "Community of Sahel-Saharan States"; COMESA = "Common Market for Eastern and Southern Africa"; EAC = "East African Community"; ECCAS = "Economic Community of Central African States"; ECOWAS = "Economic Community of West African States"; IGAD = "Intergovernmental Authority on Development"; SADC = "Southern African Development Community"; UMA = "Arab Maghreb Union"; PALOP = "Países Africanos de Língua Oficial Portuguesa"; ASEAN = "Association of Southeast Asian Nations"; MERCOSUR = "Mercado Común del Sur". EU27 = "European Union (27 members)". OECD = "Organisation for Economic Co-operation and Development".</t>
+    <t>Regional Economic Communities: CEN-SAD = "Community of Sahel-Saharan States"; COMESA = "Common Market for Eastern and Southern Africa"; EAC = "East African Community"; ECCAS = "Economic Community of Central African States"; ECOWAS = "Economic Community of West African States"; IGAD = "Intergovernmental Authority on Development"; SADC = "Southern African Development Community"; UMA = "Arab Maghreb Union"; PALOP = "Países Africanos de Língua Oficial Portuguesa Portuguesa"; ASEAN = "Association of Southeast Asian Nations"; MERCOSUR = "Mercado Común del Sur". EU27 = "European Union (27 members)". OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
     <t>Source: Author's calculations based on IMF World Economic Outlook Database October 2025. Figures are adjusted so consumption, capital formation, changes in inventories and foreign balances as a percentage of GDP add up to 100.</t>
@@ -537,16 +537,16 @@
     <t>CLICK HERE to visit the website where you can find the Africa's Development Dynamics report, and where you can find links to explore these data further and look up historic values for these indicators.</t>
   </si>
   <si>
+    <t>CLICK HERE to go to the list of indicators, descriptions and details for more information about the indicators presented in this table.</t>
+  </si>
+  <si>
+    <t>CLICK HERE to go the list of countries, and country groupings used for aggregating indicators and see which countries belong to each country grouping.</t>
+  </si>
+  <si>
     <t>CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000 (in a compressed file format).</t>
   </si>
   <si>
-    <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details, click here.</t>
-  </si>
-  <si>
-    <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators, click here.</t>
-  </si>
-  <si>
-    <t>To see the full list of sources used in the Statistical Annex, click here.</t>
+    <t>CLICK HERE to go to the full list of sources used in the Statistical Annex, click here.</t>
   </si>
 </sst>
 </file>
@@ -556,7 +556,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -688,16 +688,6 @@
       <u/>
       <sz val="12"/>
       <color rgb="FFD42C2D"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FFA54917"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -924,7 +914,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1152,7 +1142,6 @@
     <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
@@ -1436,11 +1425,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F348B5A-B5C9-4C46-BA7F-DCF5125A5D6D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB2E5528-9E25-4316-9736-00CBF29CAC47}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H113"/>
+  <dimension ref="A1:H114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -1448,7 +1437,7 @@
   <cols>
     <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="14.1796875" style="80" customWidth="1"/>
+    <col min="3" max="8" width="14.1796875" style="79" customWidth="1"/>
     <col min="9" max="15" width="14.1796875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3983,10 +3972,8 @@
       <c r="G106" s="76"/>
       <c r="H106" s="76"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B107" s="78" t="s">
-        <v>165</v>
-      </c>
+    <row r="107" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B107" s="77"/>
       <c r="C107" s="76"/>
       <c r="D107" s="76"/>
       <c r="E107" s="76"/>
@@ -3995,7 +3982,9 @@
       <c r="H107" s="76"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B108" s="2"/>
+      <c r="B108" s="80" t="s">
+        <v>165</v>
+      </c>
       <c r="C108" s="76"/>
       <c r="D108" s="76"/>
       <c r="E108" s="76"/>
@@ -4004,9 +3993,7 @@
       <c r="H108" s="76"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B109" s="81" t="s">
-        <v>167</v>
-      </c>
+      <c r="B109" s="2"/>
       <c r="C109" s="76"/>
       <c r="D109" s="76"/>
       <c r="E109" s="76"/>
@@ -4015,8 +4002,8 @@
       <c r="H109" s="76"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B110" s="81" t="s">
-        <v>168</v>
+      <c r="B110" s="80" t="s">
+        <v>166</v>
       </c>
       <c r="C110" s="76"/>
       <c r="D110" s="76"/>
@@ -4026,8 +4013,8 @@
       <c r="H110" s="76"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B111" s="81" t="s">
-        <v>169</v>
+      <c r="B111" s="80" t="s">
+        <v>167</v>
       </c>
       <c r="C111" s="76"/>
       <c r="D111" s="76"/>
@@ -4037,8 +4024,8 @@
       <c r="H111" s="76"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B112" s="2" t="s">
-        <v>166</v>
+      <c r="B112" s="80" t="s">
+        <v>169</v>
       </c>
       <c r="C112" s="76"/>
       <c r="D112" s="76"/>
@@ -4048,7 +4035,9 @@
       <c r="H112" s="76"/>
     </row>
     <row r="113" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B113" s="79"/>
+      <c r="B113" s="80" t="s">
+        <v>168</v>
+      </c>
       <c r="C113" s="76"/>
       <c r="D113" s="76"/>
       <c r="E113" s="76"/>
@@ -4056,17 +4045,25 @@
       <c r="G113" s="76"/>
       <c r="H113" s="76"/>
     </row>
+    <row r="114" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B114" s="78"/>
+      <c r="C114" s="76"/>
+      <c r="D114" s="76"/>
+      <c r="E114" s="76"/>
+      <c r="F114" s="76"/>
+      <c r="G114" s="76"/>
+      <c r="H114" s="76"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B113" r:id="rId1" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{CFE366CA-265D-40A7-9E60-AC3CE0D65197}"/>
-    <hyperlink ref="B109" r:id="rId2" xr:uid="{EEE215F2-3331-48C1-BDD4-E7658F5D682B}"/>
-    <hyperlink ref="B110" r:id="rId3" xr:uid="{057EB099-2D1B-421D-A273-7448E3F9A719}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{253755BF-E268-4442-A3B3-B84EEF91165F}"/>
-    <hyperlink ref="B112" r:id="rId5" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{C96082F2-F380-4EEB-A834-4424629F3382}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{B9270C94-CFA3-432B-907B-99A0B4AF49D1}"/>
+    <hyperlink ref="B110" r:id="rId1" xr:uid="{5B202C67-073E-41BD-AEEF-B17B8BCDA718}"/>
+    <hyperlink ref="B111" r:id="rId2" xr:uid="{0AE7F403-DAE3-4B59-BC90-DA84DFC62D29}"/>
+    <hyperlink ref="B108" r:id="rId3" xr:uid="{DC6CC558-8AE0-42CA-AF34-9596C496C733}"/>
+    <hyperlink ref="B113" r:id="rId4" xr:uid="{732FFE4D-620F-4B2F-9E12-611B707B3412}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{4A975699-27E2-4A6B-B645-E68193291343}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="95" fitToHeight="0" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" scale="95" fitToHeight="0" orientation="portrait" r:id="rId6"/>
   <headerFooter>
     <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K0000FF Restricted Use - À usage restreint</oddFooter>
   </headerFooter>
